--- a/DataFile/TraslationFile.xlsx
+++ b/DataFile/TraslationFile.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="21525" windowHeight="11100"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="21525" windowHeight="11100" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="RetterAlarm" sheetId="4" r:id="rId1"/>
@@ -13,12 +13,12 @@
     <sheet name="Sheet3" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <oleSize ref="A1:D35"/>
+  <oleSize ref="D1:L35"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="365">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="442">
   <si>
     <t xml:space="preserve">product name </t>
   </si>
@@ -59,6 +59,738 @@
     <t>RETTERAlarm</t>
   </si>
   <si>
+    <t>App - Device</t>
+  </si>
+  <si>
+    <t>RetterAlarm - APP</t>
+  </si>
+  <si>
+    <t>allow_users_to_modify_their_personal_data</t>
+  </si>
+  <si>
+    <t>Allows users to modify their personal data.</t>
+  </si>
+  <si>
+    <t>Ermöglicht Nutzern, ihre persönlichen Daten zu bearbeiten.</t>
+  </si>
+  <si>
+    <t>update_your_passowrd_to_keep_your_account_secure</t>
+  </si>
+  <si>
+    <t>Update your password to keep your account secure.</t>
+  </si>
+  <si>
+    <t>Aktualisieren Sie Ihr Passwort, um Ihr Konto zu schützen.</t>
+  </si>
+  <si>
+    <t>language</t>
+  </si>
+  <si>
+    <t>Language</t>
+  </si>
+  <si>
+    <t>Sprache</t>
+  </si>
+  <si>
+    <t>select_the_language_you_are_most_comfortable_with</t>
+  </si>
+  <si>
+    <t>Select the language you are most comfortable with.</t>
+  </si>
+  <si>
+    <t>Wählen Sie die Sprache aus, mit der Sie sich am wohlsten fühlen.</t>
+  </si>
+  <si>
+    <t>sound</t>
+  </si>
+  <si>
+    <t>Sound</t>
+  </si>
+  <si>
+    <t>Ton</t>
+  </si>
+  <si>
+    <t>sounds_setting</t>
+  </si>
+  <si>
+    <t>Sounds setting</t>
+  </si>
+  <si>
+    <t>Toneinstellung</t>
+  </si>
+  <si>
+    <t>sounds_setting_customize_sound_info</t>
+  </si>
+  <si>
+    <t>Customize sound for Alarm, Event, information, availability, chat, sound override, do not disturb.</t>
+  </si>
+  <si>
+    <t>Passen Sie den Ton für Alarm, Ereignisse, Informationen, Verfügbarkeit, Chat, Tonüberschreibung und Nicht stören an.</t>
+  </si>
+  <si>
+    <t>customize_the_alarm_tone_to_your_preference</t>
+  </si>
+  <si>
+    <t>Customize the alarm tone to your preference.</t>
+  </si>
+  <si>
+    <t>Passen Sie den Alarmton nach Ihren Wünschen an.</t>
+  </si>
+  <si>
+    <t>change_the_information_ringtone_as_needed</t>
+  </si>
+  <si>
+    <t>Change the information ringtone as needed.</t>
+  </si>
+  <si>
+    <t>Ändern Sie den Informations-Klingelton bei Bedarf.</t>
+  </si>
+  <si>
+    <t>customize_your_event_notification_sound</t>
+  </si>
+  <si>
+    <t>Customize your event notification sound.</t>
+  </si>
+  <si>
+    <t>Passen Sie Ihren Benachrichtigungston für Ereignisse an.</t>
+  </si>
+  <si>
+    <t>modify_the_alarm_sound_to_your_liking</t>
+  </si>
+  <si>
+    <t>Modify the alarm sound to your liking.</t>
+  </si>
+  <si>
+    <t>Ändern Sie den Alarmton nach Ihrem Geschmack.</t>
+  </si>
+  <si>
+    <t>personalize_your_chat_sound</t>
+  </si>
+  <si>
+    <t>Personalize your chat sound.</t>
+  </si>
+  <si>
+    <t>Personalisieren Sie Ihren Chat-Ton.</t>
+  </si>
+  <si>
+    <t>notification_sound</t>
+  </si>
+  <si>
+    <t>Notification Sound</t>
+  </si>
+  <si>
+    <t>Benachrichtigungston</t>
+  </si>
+  <si>
+    <t>mute_alarm</t>
+  </si>
+  <si>
+    <t>Mute Alarm</t>
+  </si>
+  <si>
+    <t>Alarm stummschalten</t>
+  </si>
+  <si>
+    <t>allows_users_to_modify_their_personal_data</t>
+  </si>
+  <si>
+    <t>overrides_silent_mode_to_play_a_loud_alarm</t>
+  </si>
+  <si>
+    <t>Overrides silent mode to play a loud alarm.</t>
+  </si>
+  <si>
+    <t>Hebt den Lautlos-Modus auf, um einen lauten Alarm abzuspielen.</t>
+  </si>
+  <si>
+    <t>modify_do_not_disturb_to_allow_important_alerts</t>
+  </si>
+  <si>
+    <t>Modify Do Not Disturb to allow important alerts.</t>
+  </si>
+  <si>
+    <t>Ändern Sie den Nicht stören-Modus, um wichtige Benachrichtigungen zuzulassen.</t>
+  </si>
+  <si>
+    <t>ensure_alarms_sound_when_device_in_silen_do_not_disturb_mode</t>
+  </si>
+  <si>
+    <t>Ensure alarms sound even when your device is on silent or Do Not Disturb mode.</t>
+  </si>
+  <si>
+    <t>Stellen Sie sicher, dass Alarme ertönen, auch wenn Ihr Gerät auf Lautlos oder im Nicht stören-Modus ist.</t>
+  </si>
+  <si>
+    <t>calendar_related_options</t>
+  </si>
+  <si>
+    <t>Calendar related options</t>
+  </si>
+  <si>
+    <t>Kalenderbezogene Optionen</t>
+  </si>
+  <si>
+    <t>receive_notifications_or_alarms_when_no_devices_or_services_are_available</t>
+  </si>
+  <si>
+    <t>Receive notifications or alarms when no devices or services are available.</t>
+  </si>
+  <si>
+    <t>Erhalten Sie Benachrichtigungen oder Alarme, wenn keine Geräte oder Dienste verfügbar sind.</t>
+  </si>
+  <si>
+    <t>default_calendar_view</t>
+  </si>
+  <si>
+    <t>Default calendar view</t>
+  </si>
+  <si>
+    <t>Standard-Kalenderansicht</t>
+  </si>
+  <si>
+    <t>select_the_default_calendar_view_from_the_list</t>
+  </si>
+  <si>
+    <t>Select the default calendar view from the list.</t>
+  </si>
+  <si>
+    <t>Wählen Sie die Standard-Kalenderansicht aus der Liste aus.</t>
+  </si>
+  <si>
+    <t>Agenda</t>
+  </si>
+  <si>
+    <t>Tagesordnung</t>
+  </si>
+  <si>
+    <t>Vehicle</t>
+  </si>
+  <si>
+    <t>Fahrzeug</t>
+  </si>
+  <si>
+    <t>select_vehicle_type</t>
+  </si>
+  <si>
+    <t>Select Vehicle Type</t>
+  </si>
+  <si>
+    <t>Fahrzeugtyp auswählen</t>
+  </si>
+  <si>
+    <t>select_your_preferred_vehicle_type_or_manage_vehicle_settings</t>
+  </si>
+  <si>
+    <t>Select your preferred vehicle type or manage vehicle settings.</t>
+  </si>
+  <si>
+    <t>Wählen Sie Ihren bevorzugten Fahrzeugtyp aus oder verwalten Sie die Fahrzeugeinstellungen.</t>
+  </si>
+  <si>
+    <t>Battery</t>
+  </si>
+  <si>
+    <t>Batterie</t>
+  </si>
+  <si>
+    <t>prevent_battery_saver_from_limiting_alarm_functionality_for_reliable_alerts</t>
+  </si>
+  <si>
+    <t>Prevent battery saver from limiting alarm functionality for reliable alerts.</t>
+  </si>
+  <si>
+    <t>Verhindern Sie, dass der Energiesparmodus die Alarmfunktionen einschränkt, um zuverlässige Benachrichtigungen zu gewährleisten.</t>
+  </si>
+  <si>
+    <t>play_sound</t>
+  </si>
+  <si>
+    <t>Play Sound</t>
+  </si>
+  <si>
+    <t>Ton abspielen</t>
+  </si>
+  <si>
+    <t>test_alarm_sound</t>
+  </si>
+  <si>
+    <t>Test alarm sound</t>
+  </si>
+  <si>
+    <t>Alarmton testen</t>
+  </si>
+  <si>
+    <t>play_sample_alarm_sound_to_check_the_volume_and_tone</t>
+  </si>
+  <si>
+    <t>Play a sample alarm sound to check the volume and tone.</t>
+  </si>
+  <si>
+    <t>Spielen Sie einen Beispiel-Alarmton ab, um Lautstärke und Klang zu überprüfen.</t>
+  </si>
+  <si>
+    <t>about_app</t>
+  </si>
+  <si>
+    <t>About APP</t>
+  </si>
+  <si>
+    <t>Über die App</t>
+  </si>
+  <si>
+    <t>device_name</t>
+  </si>
+  <si>
+    <t>Device name</t>
+  </si>
+  <si>
+    <t>Gerätename</t>
+  </si>
+  <si>
+    <t>app_version</t>
+  </si>
+  <si>
+    <t>App Version</t>
+  </si>
+  <si>
+    <t>os_version</t>
+  </si>
+  <si>
+    <t>OS version</t>
+  </si>
+  <si>
+    <t>Betriebssystemversion</t>
+  </si>
+  <si>
+    <t>send_logs_to_support</t>
+  </si>
+  <si>
+    <t>Send logs to support</t>
+  </si>
+  <si>
+    <t>Protokolle an den Support senden</t>
+  </si>
+  <si>
+    <t>update_password</t>
+  </si>
+  <si>
+    <t>Update Password</t>
+  </si>
+  <si>
+    <t>Passwort aktualisieren</t>
+  </si>
+  <si>
+    <t>date_of_birth</t>
+  </si>
+  <si>
+    <t>Date of birth</t>
+  </si>
+  <si>
+    <t>Geburtsdatum</t>
+  </si>
+  <si>
+    <t>mobile_no</t>
+  </si>
+  <si>
+    <t>Mobile No.</t>
+  </si>
+  <si>
+    <t>Handynummer</t>
+  </si>
+  <si>
+    <t>select_station</t>
+  </si>
+  <si>
+    <t>Select Station</t>
+  </si>
+  <si>
+    <t>Station auswählen</t>
+  </si>
+  <si>
+    <t>basic_details</t>
+  </si>
+  <si>
+    <t>Basic Details</t>
+  </si>
+  <si>
+    <t>Grundlegende Angaben</t>
+  </si>
+  <si>
+    <t>contact_details</t>
+  </si>
+  <si>
+    <t>Contact Details</t>
+  </si>
+  <si>
+    <t>Kontaktangaben</t>
+  </si>
+  <si>
+    <t>enter_your_full_name</t>
+  </si>
+  <si>
+    <t>Enter your full name</t>
+  </si>
+  <si>
+    <t>Geben Sie Ihren vollständigen Namen ein</t>
+  </si>
+  <si>
+    <t>contact_email</t>
+  </si>
+  <si>
+    <t>Mail-ID</t>
+  </si>
+  <si>
+    <t>enter_valid_mail_address</t>
+  </si>
+  <si>
+    <t>Enter valid mail address</t>
+  </si>
+  <si>
+    <t>Geben Sie eine gültige E-Mail-Adresse ein</t>
+  </si>
+  <si>
+    <t>contact_phone</t>
+  </si>
+  <si>
+    <t>Geben Sie Ihre Handynummer ein</t>
+  </si>
+  <si>
+    <t>Enter mobile number</t>
+  </si>
+  <si>
+    <t>enter_mobile_number</t>
+  </si>
+  <si>
+    <t>Schreiben Sie Ihre Nachricht</t>
+  </si>
+  <si>
+    <t>Write your message</t>
+  </si>
+  <si>
+    <t>write_your_message</t>
+  </si>
+  <si>
+    <t>Anfrage senden</t>
+  </si>
+  <si>
+    <t>Send query</t>
+  </si>
+  <si>
+    <t>send_query</t>
+  </si>
+  <si>
+    <t>Support-Protokoll in der unten angehängten Datei</t>
+  </si>
+  <si>
+    <t>support_log_in_below_attached_file</t>
+  </si>
+  <si>
+    <t>Support log in below attached file</t>
+  </si>
+  <si>
+    <t>Mail-I</t>
+  </si>
+  <si>
+    <t>Devcie Details</t>
+  </si>
+  <si>
+    <t>time_overview</t>
+  </si>
+  <si>
+    <t>Time Overview</t>
+  </si>
+  <si>
+    <t>Zeitübersicht</t>
+  </si>
+  <si>
+    <t>holiday_plan</t>
+  </si>
+  <si>
+    <t>Holiday Plan</t>
+  </si>
+  <si>
+    <t>Urlaubsplan</t>
+  </si>
+  <si>
+    <t>select_date</t>
+  </si>
+  <si>
+    <t>Select Date</t>
+  </si>
+  <si>
+    <t>Datum auswählen</t>
+  </si>
+  <si>
+    <t>list_of_work_time</t>
+  </si>
+  <si>
+    <t>List of work time</t>
+  </si>
+  <si>
+    <t>Liste der Arbeitszeiten</t>
+  </si>
+  <si>
+    <t>out</t>
+  </si>
+  <si>
+    <t>Out</t>
+  </si>
+  <si>
+    <t>Aus</t>
+  </si>
+  <si>
+    <t>work_time</t>
+  </si>
+  <si>
+    <t>Work Time</t>
+  </si>
+  <si>
+    <t>Arbeitszeit</t>
+  </si>
+  <si>
+    <t>casual_leave</t>
+  </si>
+  <si>
+    <t>Casual Leave</t>
+  </si>
+  <si>
+    <t>Gelegentlicher Urlaub</t>
+  </si>
+  <si>
+    <t>device_device_details_service_dashboard_total_device_count</t>
+  </si>
+  <si>
+    <t>All devices</t>
+  </si>
+  <si>
+    <t>Alle Geräte</t>
+  </si>
+  <si>
+    <t>Todos los dispositivos</t>
+  </si>
+  <si>
+    <t>Tous les appareils</t>
+  </si>
+  <si>
+    <t>Vse naprave</t>
+  </si>
+  <si>
+    <t>すべてのデバイス</t>
+  </si>
+  <si>
+    <t>device_device_details_service_dashboard_add_filters</t>
+  </si>
+  <si>
+    <t>Add filters</t>
+  </si>
+  <si>
+    <t>Filtern hinzufügen</t>
+  </si>
+  <si>
+    <t>Agregar filtros</t>
+  </si>
+  <si>
+    <t>Ajouter des filtres</t>
+  </si>
+  <si>
+    <t>Dodaj filtre</t>
+  </si>
+  <si>
+    <t>フィルターを追加</t>
+  </si>
+  <si>
+    <t>device_device_details_service_dashboard_add</t>
+  </si>
+  <si>
+    <t>Add</t>
+  </si>
+  <si>
+    <t>hinzufügen</t>
+  </si>
+  <si>
+    <t>Agregar</t>
+  </si>
+  <si>
+    <t>Ajouter</t>
+  </si>
+  <si>
+    <t>Dodaj</t>
+  </si>
+  <si>
+    <t>追加 (ついか)</t>
+  </si>
+  <si>
+    <t>device_device_details_service_dashboard_create_filters</t>
+  </si>
+  <si>
+    <t>Create Filters</t>
+  </si>
+  <si>
+    <t>Filter erstellen</t>
+  </si>
+  <si>
+    <t>Crear filtros</t>
+  </si>
+  <si>
+    <t>Créer des filtres</t>
+  </si>
+  <si>
+    <t>Ustvari filtre</t>
+  </si>
+  <si>
+    <t>フィルターを作成 (フィルターをさくせい)</t>
+  </si>
+  <si>
+    <t>device_device_details_service_dashboard_custom_save_view</t>
+  </si>
+  <si>
+    <t>Custom Save View</t>
+  </si>
+  <si>
+    <t>Benutzdef. Ansicht speichern</t>
+  </si>
+  <si>
+    <t>Guardar vista personalizada</t>
+  </si>
+  <si>
+    <t>Enregistrer la vue personnalisée</t>
+  </si>
+  <si>
+    <t>Shrani prilagojen pogled</t>
+  </si>
+  <si>
+    <t>カスタムビューを保存 (カスタムビューをほぞん)</t>
+  </si>
+  <si>
+    <t>device_device_details_service_dashboard_custom_view</t>
+  </si>
+  <si>
+    <t>Custom View</t>
+  </si>
+  <si>
+    <t>BENUTZERDEF. ANSICHT</t>
+  </si>
+  <si>
+    <t>Vista personalizada</t>
+  </si>
+  <si>
+    <t>Vue personnalisée</t>
+  </si>
+  <si>
+    <t>Prilagojen pogled</t>
+  </si>
+  <si>
+    <t>カスタムビュー</t>
+  </si>
+  <si>
+    <t>device_device_details_service_dashboard_designation</t>
+  </si>
+  <si>
+    <t>Designation</t>
+  </si>
+  <si>
+    <t>Bezeichnung</t>
+  </si>
+  <si>
+    <t>Denominación</t>
+  </si>
+  <si>
+    <t>Désignation</t>
+  </si>
+  <si>
+    <t>Oznaka</t>
+  </si>
+  <si>
+    <t>指定 (してい)</t>
+  </si>
+  <si>
+    <t>device_device_details_service_dashboard_define_names</t>
+  </si>
+  <si>
+    <t>Define Names</t>
+  </si>
+  <si>
+    <t>Namen definieren</t>
+  </si>
+  <si>
+    <t>Definir nombres</t>
+  </si>
+  <si>
+    <t>Définir les noms</t>
+  </si>
+  <si>
+    <t>Določi imena</t>
+  </si>
+  <si>
+    <t>名前を定義 (なまえをていぎ)</t>
+  </si>
+  <si>
+    <t>device_device_details_service_dashboard_include_current_filters_and_conditions</t>
+  </si>
+  <si>
+    <t>Include current filters and conditions</t>
+  </si>
+  <si>
+    <t>Aktuelle Filter und Bedingungen miteinschließen</t>
+  </si>
+  <si>
+    <t>Incluir los filtros y condiciones actuales</t>
+  </si>
+  <si>
+    <t>Inclure les filtres et conditions actuels</t>
+  </si>
+  <si>
+    <t>Vključi trenutne filtre in pogoje</t>
+  </si>
+  <si>
+    <t>現在のフィルターと条件を含める (げんざいのフィルターとじょうけんをふくめる)</t>
+  </si>
+  <si>
+    <t>device_device_details_service_dashboard_confirm</t>
+  </si>
+  <si>
+    <t>Confirm</t>
+  </si>
+  <si>
+    <t>Bestätigen</t>
+  </si>
+  <si>
+    <t>Confirmar</t>
+  </si>
+  <si>
+    <t>Confirmer</t>
+  </si>
+  <si>
+    <t>Potrdi</t>
+  </si>
+  <si>
+    <t>確認 (かくにん)</t>
+  </si>
+  <si>
+    <t>device_device_details_service_dashboard_cancel</t>
+  </si>
+  <si>
+    <t>Cancel</t>
+  </si>
+  <si>
+    <t>Abbrechen</t>
+  </si>
+  <si>
+    <t>Cancelar</t>
+  </si>
+  <si>
+    <t>Annuler</t>
+  </si>
+  <si>
+    <t>Prekliči</t>
+  </si>
+  <si>
+    <t>キャンセル</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Devcie Details </t>
+  </si>
+  <si>
     <t>device_device_details_popover_filter_date_this_month</t>
   </si>
   <si>
@@ -80,6 +812,228 @@
     <t>今月</t>
   </si>
   <si>
+    <t>device_device_details_service_dashboard_location</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>Standort</t>
+  </si>
+  <si>
+    <t>Ubicación</t>
+  </si>
+  <si>
+    <t>Emplacement</t>
+  </si>
+  <si>
+    <t>Lokacija</t>
+  </si>
+  <si>
+    <t>場所</t>
+  </si>
+  <si>
+    <t>device_device_details_service_dashboard_last_location</t>
+  </si>
+  <si>
+    <t>Last Location</t>
+  </si>
+  <si>
+    <t>Letzter Standort</t>
+  </si>
+  <si>
+    <t>Última ubicación</t>
+  </si>
+  <si>
+    <t>Dernière localisation</t>
+  </si>
+  <si>
+    <t>Zadnja lokacija</t>
+  </si>
+  <si>
+    <t>最終位置</t>
+  </si>
+  <si>
+    <t>device_device_details_service_dashboard_battery_replacement</t>
+  </si>
+  <si>
+    <t>Battery Replacement</t>
+  </si>
+  <si>
+    <t>Akkuwechsel</t>
+  </si>
+  <si>
+    <t>Reemplazo de batería</t>
+  </si>
+  <si>
+    <t>Remplacement de la batterie</t>
+  </si>
+  <si>
+    <t>Zamenjava baterije</t>
+  </si>
+  <si>
+    <t>バッテリー交換</t>
+  </si>
+  <si>
+    <t>device_device_details_service_dashboard_700_bar</t>
+  </si>
+  <si>
+    <t>700 bar</t>
+  </si>
+  <si>
+    <t>&lt;700bar</t>
+  </si>
+  <si>
+    <t>700 bares</t>
+  </si>
+  <si>
+    <t>700 bars</t>
+  </si>
+  <si>
+    <t>700 barov</t>
+  </si>
+  <si>
+    <t>(日本語): 700バール</t>
+  </si>
+  <si>
+    <t>device_device_details_service_dashboard_operation_hours</t>
+  </si>
+  <si>
+    <t>Operation Hours</t>
+  </si>
+  <si>
+    <t>Betriebsstunden</t>
+  </si>
+  <si>
+    <t>Horas de funcionamiento</t>
+  </si>
+  <si>
+    <t>Heures de fonctionnement</t>
+  </si>
+  <si>
+    <t>Obratovalne ure</t>
+  </si>
+  <si>
+    <t>稼働時間</t>
+  </si>
+  <si>
+    <t>device_device_details_service_dashboard_service</t>
+  </si>
+  <si>
+    <t>Service</t>
+  </si>
+  <si>
+    <t>Servicio</t>
+  </si>
+  <si>
+    <t>Storitev</t>
+  </si>
+  <si>
+    <t>サービス</t>
+  </si>
+  <si>
+    <t>device_device_details_service_dashboard_recommendation</t>
+  </si>
+  <si>
+    <t>Recommendation</t>
+  </si>
+  <si>
+    <t>Empfehlung</t>
+  </si>
+  <si>
+    <t>Recomendación</t>
+  </si>
+  <si>
+    <t>Recommandation</t>
+  </si>
+  <si>
+    <t>Priporočilo</t>
+  </si>
+  <si>
+    <t>推奨（すいしょう）</t>
+  </si>
+  <si>
+    <t>device_device_details_service_dashboard_actions</t>
+  </si>
+  <si>
+    <t>Actions</t>
+  </si>
+  <si>
+    <t>Aktionen</t>
+  </si>
+  <si>
+    <t>Acciones</t>
+  </si>
+  <si>
+    <t>Dejanja</t>
+  </si>
+  <si>
+    <t>アクション</t>
+  </si>
+  <si>
+    <t>device_device_details_service_dashboard_device_status_not_ready_for_use</t>
+  </si>
+  <si>
+    <t>Not Ready For Use</t>
+  </si>
+  <si>
+    <t>Nicht einsatzbereit</t>
+  </si>
+  <si>
+    <t>No está listo para usar</t>
+  </si>
+  <si>
+    <t>Pas prêt à l'utilisation</t>
+  </si>
+  <si>
+    <t>Ni pripravljen za uporabo</t>
+  </si>
+  <si>
+    <t>使用準備ができていません</t>
+  </si>
+  <si>
+    <t>device_device_details_service_dashboard_device_status_conditionally_operational</t>
+  </si>
+  <si>
+    <t>Conditionally Operational</t>
+  </si>
+  <si>
+    <t>Bedingt einsatzbereit</t>
+  </si>
+  <si>
+    <t>Funcional con limitaciones</t>
+  </si>
+  <si>
+    <t>Opérationnel sous conditions</t>
+  </si>
+  <si>
+    <t>Pogojno delujoč</t>
+  </si>
+  <si>
+    <t>条件付きで稼働中</t>
+  </si>
+  <si>
+    <t>device_device_details_device_status_ready_for_use</t>
+  </si>
+  <si>
+    <t>Ready For Use</t>
+  </si>
+  <si>
+    <t>Einsatzbereit</t>
+  </si>
+  <si>
+    <t>Listo para usar</t>
+  </si>
+  <si>
+    <t>Prêt à l'utilisation</t>
+  </si>
+  <si>
+    <t>Pripravljen za uporabo</t>
+  </si>
+  <si>
+    <t>使用可能です</t>
+  </si>
+  <si>
     <t>device_device_details_popover_filter_date_last_month</t>
   </si>
   <si>
@@ -164,444 +1118,6 @@
     <t>カスタム日付</t>
   </si>
   <si>
-    <t>App - Device</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Devcie Details </t>
-  </si>
-  <si>
-    <t>RetterAlarm - APP</t>
-  </si>
-  <si>
-    <t>allow_users_to_modify_their_personal_data</t>
-  </si>
-  <si>
-    <t>Allows users to modify their personal data.</t>
-  </si>
-  <si>
-    <t>Ermöglicht Nutzern, ihre persönlichen Daten zu bearbeiten.</t>
-  </si>
-  <si>
-    <t>update_your_passowrd_to_keep_your_account_secure</t>
-  </si>
-  <si>
-    <t>Update your password to keep your account secure.</t>
-  </si>
-  <si>
-    <t>Aktualisieren Sie Ihr Passwort, um Ihr Konto zu schützen.</t>
-  </si>
-  <si>
-    <t>language</t>
-  </si>
-  <si>
-    <t>Language</t>
-  </si>
-  <si>
-    <t>Sprache</t>
-  </si>
-  <si>
-    <t>select_the_language_you_are_most_comfortable_with</t>
-  </si>
-  <si>
-    <t>Select the language you are most comfortable with.</t>
-  </si>
-  <si>
-    <t>Wählen Sie die Sprache aus, mit der Sie sich am wohlsten fühlen.</t>
-  </si>
-  <si>
-    <t>sound</t>
-  </si>
-  <si>
-    <t>Sound</t>
-  </si>
-  <si>
-    <t>Ton</t>
-  </si>
-  <si>
-    <t>sounds_setting</t>
-  </si>
-  <si>
-    <t>Sounds setting</t>
-  </si>
-  <si>
-    <t>Toneinstellung</t>
-  </si>
-  <si>
-    <t>sounds_setting_customize_sound_info</t>
-  </si>
-  <si>
-    <t>Customize sound for Alarm, Event, information, availability, chat, sound override, do not disturb.</t>
-  </si>
-  <si>
-    <t>Passen Sie den Ton für Alarm, Ereignisse, Informationen, Verfügbarkeit, Chat, Tonüberschreibung und Nicht stören an.</t>
-  </si>
-  <si>
-    <t>customize_the_alarm_tone_to_your_preference</t>
-  </si>
-  <si>
-    <t>Customize the alarm tone to your preference.</t>
-  </si>
-  <si>
-    <t>Passen Sie den Alarmton nach Ihren Wünschen an.</t>
-  </si>
-  <si>
-    <t>change_the_information_ringtone_as_needed</t>
-  </si>
-  <si>
-    <t>Change the information ringtone as needed.</t>
-  </si>
-  <si>
-    <t>Ändern Sie den Informations-Klingelton bei Bedarf.</t>
-  </si>
-  <si>
-    <t>customize_your_event_notification_sound</t>
-  </si>
-  <si>
-    <t>Customize your event notification sound.</t>
-  </si>
-  <si>
-    <t>Passen Sie Ihren Benachrichtigungston für Ereignisse an.</t>
-  </si>
-  <si>
-    <t>modify_the_alarm_sound_to_your_liking</t>
-  </si>
-  <si>
-    <t>Modify the alarm sound to your liking.</t>
-  </si>
-  <si>
-    <t>Ändern Sie den Alarmton nach Ihrem Geschmack.</t>
-  </si>
-  <si>
-    <t>personalize_your_chat_sound</t>
-  </si>
-  <si>
-    <t>Personalize your chat sound.</t>
-  </si>
-  <si>
-    <t>Personalisieren Sie Ihren Chat-Ton.</t>
-  </si>
-  <si>
-    <t>notification_sound</t>
-  </si>
-  <si>
-    <t>Notification Sound</t>
-  </si>
-  <si>
-    <t>Benachrichtigungston</t>
-  </si>
-  <si>
-    <t>mute_alarm</t>
-  </si>
-  <si>
-    <t>Mute Alarm</t>
-  </si>
-  <si>
-    <t>Alarm stummschalten</t>
-  </si>
-  <si>
-    <t>allows_users_to_modify_their_personal_data</t>
-  </si>
-  <si>
-    <t>overrides_silent_mode_to_play_a_loud_alarm</t>
-  </si>
-  <si>
-    <t>Overrides silent mode to play a loud alarm.</t>
-  </si>
-  <si>
-    <t>Hebt den Lautlos-Modus auf, um einen lauten Alarm abzuspielen.</t>
-  </si>
-  <si>
-    <t>modify_do_not_disturb_to_allow_important_alerts</t>
-  </si>
-  <si>
-    <t>Modify Do Not Disturb to allow important alerts.</t>
-  </si>
-  <si>
-    <t>Ändern Sie den Nicht stören-Modus, um wichtige Benachrichtigungen zuzulassen.</t>
-  </si>
-  <si>
-    <t>ensure_alarms_sound_when_device_in_silen_do_not_disturb_mode</t>
-  </si>
-  <si>
-    <t>Ensure alarms sound even when your device is on silent or Do Not Disturb mode.</t>
-  </si>
-  <si>
-    <t>Stellen Sie sicher, dass Alarme ertönen, auch wenn Ihr Gerät auf Lautlos oder im Nicht stören-Modus ist.</t>
-  </si>
-  <si>
-    <t>calendar_related_options</t>
-  </si>
-  <si>
-    <t>Calendar related options</t>
-  </si>
-  <si>
-    <t>Kalenderbezogene Optionen</t>
-  </si>
-  <si>
-    <t>receive_notifications_or_alarms_when_no_devices_or_services_are_available</t>
-  </si>
-  <si>
-    <t>Receive notifications or alarms when no devices or services are available.</t>
-  </si>
-  <si>
-    <t>Erhalten Sie Benachrichtigungen oder Alarme, wenn keine Geräte oder Dienste verfügbar sind.</t>
-  </si>
-  <si>
-    <t>default_calendar_view</t>
-  </si>
-  <si>
-    <t>Default calendar view</t>
-  </si>
-  <si>
-    <t>Standard-Kalenderansicht</t>
-  </si>
-  <si>
-    <t>select_the_default_calendar_view_from_the_list</t>
-  </si>
-  <si>
-    <t>Select the default calendar view from the list.</t>
-  </si>
-  <si>
-    <t>Wählen Sie die Standard-Kalenderansicht aus der Liste aus.</t>
-  </si>
-  <si>
-    <t>Agenda</t>
-  </si>
-  <si>
-    <t>Tagesordnung</t>
-  </si>
-  <si>
-    <t>Vehicle</t>
-  </si>
-  <si>
-    <t>Fahrzeug</t>
-  </si>
-  <si>
-    <t>select_vehicle_type</t>
-  </si>
-  <si>
-    <t>Select Vehicle Type</t>
-  </si>
-  <si>
-    <t>Fahrzeugtyp auswählen</t>
-  </si>
-  <si>
-    <t>select_your_preferred_vehicle_type_or_manage_vehicle_settings</t>
-  </si>
-  <si>
-    <t>Select your preferred vehicle type or manage vehicle settings.</t>
-  </si>
-  <si>
-    <t>Wählen Sie Ihren bevorzugten Fahrzeugtyp aus oder verwalten Sie die Fahrzeugeinstellungen.</t>
-  </si>
-  <si>
-    <t>Battery</t>
-  </si>
-  <si>
-    <t>Batterie</t>
-  </si>
-  <si>
-    <t>prevent_battery_saver_from_limiting_alarm_functionality_for_reliable_alerts</t>
-  </si>
-  <si>
-    <t>Prevent battery saver from limiting alarm functionality for reliable alerts.</t>
-  </si>
-  <si>
-    <t>Verhindern Sie, dass der Energiesparmodus die Alarmfunktionen einschränkt, um zuverlässige Benachrichtigungen zu gewährleisten.</t>
-  </si>
-  <si>
-    <t>play_sound</t>
-  </si>
-  <si>
-    <t>Play Sound</t>
-  </si>
-  <si>
-    <t>Ton abspielen</t>
-  </si>
-  <si>
-    <t>test_alarm_sound</t>
-  </si>
-  <si>
-    <t>Test alarm sound</t>
-  </si>
-  <si>
-    <t>Alarmton testen</t>
-  </si>
-  <si>
-    <t>play_sample_alarm_sound_to_check_the_volume_and_tone</t>
-  </si>
-  <si>
-    <t>Play a sample alarm sound to check the volume and tone.</t>
-  </si>
-  <si>
-    <t>Spielen Sie einen Beispiel-Alarmton ab, um Lautstärke und Klang zu überprüfen.</t>
-  </si>
-  <si>
-    <t>about_app</t>
-  </si>
-  <si>
-    <t>About APP</t>
-  </si>
-  <si>
-    <t>Über die App</t>
-  </si>
-  <si>
-    <t>device_name</t>
-  </si>
-  <si>
-    <t>Device name</t>
-  </si>
-  <si>
-    <t>Gerätename</t>
-  </si>
-  <si>
-    <t>app_version</t>
-  </si>
-  <si>
-    <t>App Version</t>
-  </si>
-  <si>
-    <t>os_version</t>
-  </si>
-  <si>
-    <t>OS version</t>
-  </si>
-  <si>
-    <t>Betriebssystemversion</t>
-  </si>
-  <si>
-    <t>send_logs_to_support</t>
-  </si>
-  <si>
-    <t>Send logs to support</t>
-  </si>
-  <si>
-    <t>Protokolle an den Support senden</t>
-  </si>
-  <si>
-    <t>update_password</t>
-  </si>
-  <si>
-    <t>Update Password</t>
-  </si>
-  <si>
-    <t>Passwort aktualisieren</t>
-  </si>
-  <si>
-    <t>date_of_birth</t>
-  </si>
-  <si>
-    <t>Date of birth</t>
-  </si>
-  <si>
-    <t>Geburtsdatum</t>
-  </si>
-  <si>
-    <t>mobile_no</t>
-  </si>
-  <si>
-    <t>Mobile No.</t>
-  </si>
-  <si>
-    <t>Handynummer</t>
-  </si>
-  <si>
-    <t>select_station</t>
-  </si>
-  <si>
-    <t>Select Station</t>
-  </si>
-  <si>
-    <t>Station auswählen</t>
-  </si>
-  <si>
-    <t>basic_details</t>
-  </si>
-  <si>
-    <t>Basic Details</t>
-  </si>
-  <si>
-    <t>Grundlegende Angaben</t>
-  </si>
-  <si>
-    <t>contact_details</t>
-  </si>
-  <si>
-    <t>Contact Details</t>
-  </si>
-  <si>
-    <t>Kontaktangaben</t>
-  </si>
-  <si>
-    <t>enter_your_full_name</t>
-  </si>
-  <si>
-    <t>Enter your full name</t>
-  </si>
-  <si>
-    <t>Geben Sie Ihren vollständigen Namen ein</t>
-  </si>
-  <si>
-    <t>contact_email</t>
-  </si>
-  <si>
-    <t>Mail-ID</t>
-  </si>
-  <si>
-    <t>enter_valid_mail_address</t>
-  </si>
-  <si>
-    <t>Enter valid mail address</t>
-  </si>
-  <si>
-    <t>Geben Sie eine gültige E-Mail-Adresse ein</t>
-  </si>
-  <si>
-    <t>contact_phone</t>
-  </si>
-  <si>
-    <t>Geben Sie Ihre Handynummer ein</t>
-  </si>
-  <si>
-    <t>Enter mobile number</t>
-  </si>
-  <si>
-    <t>enter_mobile_number</t>
-  </si>
-  <si>
-    <t>Schreiben Sie Ihre Nachricht</t>
-  </si>
-  <si>
-    <t>Write your message</t>
-  </si>
-  <si>
-    <t>write_your_message</t>
-  </si>
-  <si>
-    <t>Anfrage senden</t>
-  </si>
-  <si>
-    <t>Send query</t>
-  </si>
-  <si>
-    <t>send_query</t>
-  </si>
-  <si>
-    <t>Support-Protokoll in der unten angehängten Datei</t>
-  </si>
-  <si>
-    <t>support_log_in_below_attached_file</t>
-  </si>
-  <si>
-    <t>Support log in below attached file</t>
-  </si>
-  <si>
-    <t>Mail-I</t>
-  </si>
-  <si>
-    <t>Devcie Details</t>
-  </si>
-  <si>
     <t>device_device_details_service_dashboard</t>
   </si>
   <si>
@@ -828,298 +1344,13 @@
   </si>
   <si>
     <t>駅（えき）</t>
-  </si>
-  <si>
-    <t>device_device_details_service_dashboard_location</t>
-  </si>
-  <si>
-    <t>Location</t>
-  </si>
-  <si>
-    <t>Standort</t>
-  </si>
-  <si>
-    <t>Ubicación</t>
-  </si>
-  <si>
-    <t>Emplacement</t>
-  </si>
-  <si>
-    <t>Lokacija</t>
-  </si>
-  <si>
-    <t>場所</t>
-  </si>
-  <si>
-    <t>device_device_details_service_dashboard_last_location</t>
-  </si>
-  <si>
-    <t>Last Location</t>
-  </si>
-  <si>
-    <t>Letzter Standort</t>
-  </si>
-  <si>
-    <t>Última ubicación</t>
-  </si>
-  <si>
-    <t>Dernière localisation</t>
-  </si>
-  <si>
-    <t>Zadnja lokacija</t>
-  </si>
-  <si>
-    <t>最終位置</t>
-  </si>
-  <si>
-    <t>device_device_details_service_dashboard_battery_replacement</t>
-  </si>
-  <si>
-    <t>Battery Replacement</t>
-  </si>
-  <si>
-    <t>Akkuwechsel</t>
-  </si>
-  <si>
-    <t>Reemplazo de batería</t>
-  </si>
-  <si>
-    <t>Remplacement de la batterie</t>
-  </si>
-  <si>
-    <t>Zamenjava baterije</t>
-  </si>
-  <si>
-    <t>バッテリー交換</t>
-  </si>
-  <si>
-    <t>device_device_details_service_dashboard_700_bar</t>
-  </si>
-  <si>
-    <t>700 bar</t>
-  </si>
-  <si>
-    <t>&lt;700bar</t>
-  </si>
-  <si>
-    <t>700 bares</t>
-  </si>
-  <si>
-    <t>700 bars</t>
-  </si>
-  <si>
-    <t>700 barov</t>
-  </si>
-  <si>
-    <t>(日本語): 700バール</t>
-  </si>
-  <si>
-    <t>device_device_details_service_dashboard_operation_hours</t>
-  </si>
-  <si>
-    <t>Operation Hours</t>
-  </si>
-  <si>
-    <t>Betriebsstunden</t>
-  </si>
-  <si>
-    <t>Horas de funcionamiento</t>
-  </si>
-  <si>
-    <t>Heures de fonctionnement</t>
-  </si>
-  <si>
-    <t>Obratovalne ure</t>
-  </si>
-  <si>
-    <t>稼働時間</t>
-  </si>
-  <si>
-    <t>device_device_details_service_dashboard_service</t>
-  </si>
-  <si>
-    <t>Service</t>
-  </si>
-  <si>
-    <t>Servicio</t>
-  </si>
-  <si>
-    <t>Storitev</t>
-  </si>
-  <si>
-    <t>サービス</t>
-  </si>
-  <si>
-    <t>device_device_details_service_dashboard_recommendation</t>
-  </si>
-  <si>
-    <t>Recommendation</t>
-  </si>
-  <si>
-    <t>Empfehlung</t>
-  </si>
-  <si>
-    <t>Recomendación</t>
-  </si>
-  <si>
-    <t>Recommandation</t>
-  </si>
-  <si>
-    <t>Priporočilo</t>
-  </si>
-  <si>
-    <t>推奨（すいしょう）</t>
-  </si>
-  <si>
-    <t>device_device_details_service_dashboard_actions</t>
-  </si>
-  <si>
-    <t>Actions</t>
-  </si>
-  <si>
-    <t>Aktionen</t>
-  </si>
-  <si>
-    <t>Acciones</t>
-  </si>
-  <si>
-    <t>Dejanja</t>
-  </si>
-  <si>
-    <t>アクション</t>
-  </si>
-  <si>
-    <t>device_device_details_service_dashboard_device_status_not_ready_for_use</t>
-  </si>
-  <si>
-    <t>Not Ready For Use</t>
-  </si>
-  <si>
-    <t>Nicht einsatzbereit</t>
-  </si>
-  <si>
-    <t>No está listo para usar</t>
-  </si>
-  <si>
-    <t>Pas prêt à l'utilisation</t>
-  </si>
-  <si>
-    <t>Ni pripravljen za uporabo</t>
-  </si>
-  <si>
-    <t>使用準備ができていません</t>
-  </si>
-  <si>
-    <t>device_device_details_service_dashboard_device_status_conditionally_operational</t>
-  </si>
-  <si>
-    <t>Conditionally Operational</t>
-  </si>
-  <si>
-    <t>Bedingt einsatzbereit</t>
-  </si>
-  <si>
-    <t>Funcional con limitaciones</t>
-  </si>
-  <si>
-    <t>Opérationnel sous conditions</t>
-  </si>
-  <si>
-    <t>Pogojno delujoč</t>
-  </si>
-  <si>
-    <t>条件付きで稼働中</t>
-  </si>
-  <si>
-    <t>device_device_details_device_status_ready_for_use</t>
-  </si>
-  <si>
-    <t>Ready For Use</t>
-  </si>
-  <si>
-    <t>Einsatzbereit</t>
-  </si>
-  <si>
-    <t>Listo para usar</t>
-  </si>
-  <si>
-    <t>Prêt à l'utilisation</t>
-  </si>
-  <si>
-    <t>Pripravljen za uporabo</t>
-  </si>
-  <si>
-    <t>使用可能です</t>
-  </si>
-  <si>
-    <t>time_overview</t>
-  </si>
-  <si>
-    <t>Time Overview</t>
-  </si>
-  <si>
-    <t>Zeitübersicht</t>
-  </si>
-  <si>
-    <t>holiday_plan</t>
-  </si>
-  <si>
-    <t>Holiday Plan</t>
-  </si>
-  <si>
-    <t>Urlaubsplan</t>
-  </si>
-  <si>
-    <t>select_date</t>
-  </si>
-  <si>
-    <t>Select Date</t>
-  </si>
-  <si>
-    <t>Datum auswählen</t>
-  </si>
-  <si>
-    <t>list_of_work_time</t>
-  </si>
-  <si>
-    <t>List of work time</t>
-  </si>
-  <si>
-    <t>Liste der Arbeitszeiten</t>
-  </si>
-  <si>
-    <t>out</t>
-  </si>
-  <si>
-    <t>Out</t>
-  </si>
-  <si>
-    <t>Aus</t>
-  </si>
-  <si>
-    <t>work_time</t>
-  </si>
-  <si>
-    <t>Work Time</t>
-  </si>
-  <si>
-    <t>Arbeitszeit</t>
-  </si>
-  <si>
-    <t>casual_leave</t>
-  </si>
-  <si>
-    <t>Casual Leave</t>
-  </si>
-  <si>
-    <t>Gelegentlicher Urlaub</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1161,6 +1392,32 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF211A1D"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF211A1D"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1170,7 +1427,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -1178,11 +1435,116 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1196,6 +1558,40 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1492,7 +1888,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E93"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A84" sqref="A84:E95"/>
     </sheetView>
   </sheetViews>
@@ -1527,16 +1923,16 @@
         <v>12</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>344</v>
+        <v>158</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>345</v>
+        <v>159</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>346</v>
+        <v>160</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1544,16 +1940,16 @@
         <v>12</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>347</v>
+        <v>161</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>348</v>
+        <v>162</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>349</v>
+        <v>163</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1561,16 +1957,16 @@
         <v>12</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>350</v>
+        <v>164</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>351</v>
+        <v>165</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>352</v>
+        <v>166</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1578,16 +1974,16 @@
         <v>12</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>353</v>
+        <v>167</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>354</v>
+        <v>168</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>355</v>
+        <v>169</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1595,16 +1991,16 @@
         <v>12</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>356</v>
+        <v>170</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>357</v>
+        <v>171</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>358</v>
+        <v>172</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1612,16 +2008,16 @@
         <v>12</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>359</v>
+        <v>173</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>360</v>
+        <v>174</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>361</v>
+        <v>175</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1629,16 +2025,16 @@
         <v>12</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>362</v>
+        <v>176</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>363</v>
+        <v>177</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>364</v>
+        <v>178</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1646,16 +2042,16 @@
         <v>12</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>100</v>
+        <v>64</v>
       </c>
       <c r="D9" t="s">
-        <v>101</v>
+        <v>65</v>
       </c>
       <c r="E9" t="s">
-        <v>102</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1663,16 +2059,16 @@
         <v>12</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>103</v>
+        <v>67</v>
       </c>
       <c r="D10" t="s">
-        <v>104</v>
+        <v>68</v>
       </c>
       <c r="E10" t="s">
-        <v>105</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1680,16 +2076,16 @@
         <v>12</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>106</v>
+        <v>70</v>
       </c>
       <c r="D11" t="s">
-        <v>107</v>
+        <v>71</v>
       </c>
       <c r="E11" t="s">
-        <v>108</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1697,16 +2093,16 @@
         <v>12</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="C12" t="s">
-        <v>109</v>
+        <v>73</v>
       </c>
       <c r="D12" t="s">
-        <v>110</v>
+        <v>74</v>
       </c>
       <c r="E12" t="s">
-        <v>111</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1714,16 +2110,16 @@
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>112</v>
+        <v>76</v>
       </c>
       <c r="D13" t="s">
-        <v>113</v>
+        <v>77</v>
       </c>
       <c r="E13" t="s">
-        <v>114</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1731,16 +2127,16 @@
         <v>12</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>115</v>
+        <v>79</v>
       </c>
       <c r="D14" t="s">
-        <v>115</v>
+        <v>79</v>
       </c>
       <c r="E14" t="s">
-        <v>116</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1748,16 +2144,16 @@
         <v>12</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>117</v>
+        <v>81</v>
       </c>
       <c r="D15" t="s">
-        <v>117</v>
+        <v>81</v>
       </c>
       <c r="E15" t="s">
-        <v>118</v>
+        <v>82</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1765,16 +2161,16 @@
         <v>12</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="C16" t="s">
-        <v>119</v>
+        <v>83</v>
       </c>
       <c r="D16" t="s">
-        <v>120</v>
+        <v>84</v>
       </c>
       <c r="E16" t="s">
-        <v>121</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1782,16 +2178,16 @@
         <v>12</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="C17" t="s">
-        <v>122</v>
+        <v>86</v>
       </c>
       <c r="D17" t="s">
-        <v>123</v>
+        <v>87</v>
       </c>
       <c r="E17" t="s">
-        <v>124</v>
+        <v>88</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1799,16 +2195,16 @@
         <v>12</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="C18" t="s">
-        <v>125</v>
+        <v>89</v>
       </c>
       <c r="D18" t="s">
-        <v>125</v>
+        <v>89</v>
       </c>
       <c r="E18" t="s">
-        <v>126</v>
+        <v>90</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1816,16 +2212,16 @@
         <v>12</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="C19" t="s">
-        <v>127</v>
+        <v>91</v>
       </c>
       <c r="D19" t="s">
-        <v>128</v>
+        <v>92</v>
       </c>
       <c r="E19" t="s">
-        <v>129</v>
+        <v>93</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1833,16 +2229,16 @@
         <v>12</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="C20" t="s">
-        <v>130</v>
+        <v>94</v>
       </c>
       <c r="D20" t="s">
-        <v>131</v>
+        <v>95</v>
       </c>
       <c r="E20" t="s">
-        <v>132</v>
+        <v>96</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1850,16 +2246,16 @@
         <v>12</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="C21" t="s">
-        <v>133</v>
+        <v>97</v>
       </c>
       <c r="D21" t="s">
-        <v>134</v>
+        <v>98</v>
       </c>
       <c r="E21" t="s">
-        <v>135</v>
+        <v>99</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1867,16 +2263,16 @@
         <v>12</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="C22" t="s">
-        <v>136</v>
+        <v>100</v>
       </c>
       <c r="D22" t="s">
-        <v>137</v>
+        <v>101</v>
       </c>
       <c r="E22" t="s">
-        <v>138</v>
+        <v>102</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1884,16 +2280,16 @@
         <v>12</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="C23" t="s">
-        <v>139</v>
+        <v>103</v>
       </c>
       <c r="D23" t="s">
-        <v>140</v>
+        <v>104</v>
       </c>
       <c r="E23" t="s">
-        <v>141</v>
+        <v>105</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1901,16 +2297,16 @@
         <v>12</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="C24" t="s">
-        <v>142</v>
+        <v>106</v>
       </c>
       <c r="D24" t="s">
-        <v>143</v>
+        <v>107</v>
       </c>
       <c r="E24" t="s">
-        <v>144</v>
+        <v>108</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1918,16 +2314,16 @@
         <v>12</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="C25" t="s">
-        <v>145</v>
+        <v>109</v>
       </c>
       <c r="D25" t="s">
-        <v>146</v>
+        <v>110</v>
       </c>
       <c r="E25" t="s">
-        <v>146</v>
+        <v>110</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1935,16 +2331,16 @@
         <v>12</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="C26" t="s">
-        <v>147</v>
+        <v>111</v>
       </c>
       <c r="D26" t="s">
-        <v>148</v>
+        <v>112</v>
       </c>
       <c r="E26" t="s">
-        <v>149</v>
+        <v>113</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1952,16 +2348,16 @@
         <v>12</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="C27" t="s">
-        <v>150</v>
+        <v>114</v>
       </c>
       <c r="D27" t="s">
-        <v>151</v>
+        <v>115</v>
       </c>
       <c r="E27" t="s">
-        <v>152</v>
+        <v>116</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1969,16 +2365,16 @@
         <v>12</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="C28" t="s">
-        <v>153</v>
+        <v>117</v>
       </c>
       <c r="D28" t="s">
-        <v>154</v>
+        <v>118</v>
       </c>
       <c r="E28" t="s">
-        <v>155</v>
+        <v>119</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1986,16 +2382,16 @@
         <v>12</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="C29" t="s">
-        <v>156</v>
+        <v>120</v>
       </c>
       <c r="D29" t="s">
-        <v>157</v>
+        <v>121</v>
       </c>
       <c r="E29" t="s">
-        <v>158</v>
+        <v>122</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -2003,16 +2399,16 @@
         <v>12</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="C30" t="s">
-        <v>159</v>
+        <v>123</v>
       </c>
       <c r="D30" t="s">
-        <v>160</v>
+        <v>124</v>
       </c>
       <c r="E30" t="s">
-        <v>161</v>
+        <v>125</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -2020,16 +2416,16 @@
         <v>12</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="C31" t="s">
-        <v>162</v>
+        <v>126</v>
       </c>
       <c r="D31" t="s">
-        <v>163</v>
+        <v>127</v>
       </c>
       <c r="E31" t="s">
-        <v>164</v>
+        <v>128</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -2037,16 +2433,16 @@
         <v>12</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="C32" t="s">
-        <v>165</v>
+        <v>129</v>
       </c>
       <c r="D32" t="s">
-        <v>166</v>
+        <v>130</v>
       </c>
       <c r="E32" t="s">
-        <v>167</v>
+        <v>131</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -2054,16 +2450,16 @@
         <v>12</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="C33" t="s">
-        <v>168</v>
+        <v>132</v>
       </c>
       <c r="D33" t="s">
-        <v>169</v>
+        <v>133</v>
       </c>
       <c r="E33" t="s">
-        <v>170</v>
+        <v>134</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -2071,16 +2467,16 @@
         <v>12</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="C34" t="s">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="D34" t="s">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="E34" t="s">
-        <v>53</v>
+        <v>17</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -2088,16 +2484,16 @@
         <v>12</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="C35" t="s">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="D35" t="s">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="E35" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -2105,16 +2501,16 @@
         <v>12</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="C36" t="s">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="D36" t="s">
-        <v>58</v>
+        <v>22</v>
       </c>
       <c r="E36" t="s">
-        <v>59</v>
+        <v>23</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -2122,16 +2518,16 @@
         <v>12</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="C37" t="s">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="D37" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="E37" t="s">
-        <v>62</v>
+        <v>26</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -2139,16 +2535,16 @@
         <v>12</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="C38" t="s">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="D38" t="s">
-        <v>64</v>
+        <v>28</v>
       </c>
       <c r="E38" t="s">
-        <v>65</v>
+        <v>29</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -2156,16 +2552,16 @@
         <v>12</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="C39" t="s">
-        <v>66</v>
+        <v>30</v>
       </c>
       <c r="D39" t="s">
-        <v>67</v>
+        <v>31</v>
       </c>
       <c r="E39" t="s">
-        <v>68</v>
+        <v>32</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -2173,16 +2569,16 @@
         <v>12</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="C40" t="s">
-        <v>69</v>
+        <v>33</v>
       </c>
       <c r="D40" t="s">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="E40" t="s">
-        <v>71</v>
+        <v>35</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -2190,16 +2586,16 @@
         <v>12</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="C41" t="s">
-        <v>72</v>
+        <v>36</v>
       </c>
       <c r="D41" t="s">
-        <v>73</v>
+        <v>37</v>
       </c>
       <c r="E41" t="s">
-        <v>74</v>
+        <v>38</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -2207,16 +2603,16 @@
         <v>12</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="C42" t="s">
-        <v>75</v>
+        <v>39</v>
       </c>
       <c r="D42" t="s">
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="E42" t="s">
-        <v>77</v>
+        <v>41</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -2224,16 +2620,16 @@
         <v>12</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="C43" t="s">
-        <v>78</v>
+        <v>42</v>
       </c>
       <c r="D43" t="s">
-        <v>79</v>
+        <v>43</v>
       </c>
       <c r="E43" t="s">
-        <v>80</v>
+        <v>44</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -2241,16 +2637,16 @@
         <v>12</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="C44" t="s">
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="D44" t="s">
-        <v>82</v>
+        <v>46</v>
       </c>
       <c r="E44" t="s">
-        <v>83</v>
+        <v>47</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -2258,16 +2654,16 @@
         <v>12</v>
       </c>
       <c r="B45" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C45" t="s">
+        <v>48</v>
+      </c>
+      <c r="D45" t="s">
+        <v>49</v>
+      </c>
+      <c r="E45" t="s">
         <v>50</v>
-      </c>
-      <c r="C45" t="s">
-        <v>84</v>
-      </c>
-      <c r="D45" t="s">
-        <v>85</v>
-      </c>
-      <c r="E45" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -2275,16 +2671,16 @@
         <v>12</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="C46" t="s">
-        <v>87</v>
+        <v>51</v>
       </c>
       <c r="D46" t="s">
-        <v>88</v>
+        <v>52</v>
       </c>
       <c r="E46" t="s">
-        <v>89</v>
+        <v>53</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -2292,16 +2688,16 @@
         <v>12</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="C47" t="s">
-        <v>90</v>
+        <v>54</v>
       </c>
       <c r="D47" t="s">
-        <v>91</v>
+        <v>55</v>
       </c>
       <c r="E47" t="s">
-        <v>92</v>
+        <v>56</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -2309,16 +2705,16 @@
         <v>12</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="C48" t="s">
-        <v>93</v>
+        <v>57</v>
       </c>
       <c r="D48" t="s">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="E48" t="s">
-        <v>53</v>
+        <v>17</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -2326,16 +2722,16 @@
         <v>12</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="C49" t="s">
-        <v>94</v>
+        <v>58</v>
       </c>
       <c r="D49" t="s">
-        <v>95</v>
+        <v>59</v>
       </c>
       <c r="E49" t="s">
-        <v>96</v>
+        <v>60</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -2343,16 +2739,16 @@
         <v>12</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="C50" t="s">
-        <v>97</v>
+        <v>61</v>
       </c>
       <c r="D50" t="s">
-        <v>98</v>
+        <v>62</v>
       </c>
       <c r="E50" t="s">
-        <v>99</v>
+        <v>63</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -2360,16 +2756,16 @@
         <v>12</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>171</v>
+        <v>135</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>172</v>
+        <v>136</v>
       </c>
       <c r="E51" t="s">
-        <v>173</v>
+        <v>137</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -2377,16 +2773,16 @@
         <v>12</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>174</v>
+        <v>138</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>175</v>
+        <v>139</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>192</v>
+        <v>156</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -2394,16 +2790,16 @@
         <v>12</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>176</v>
+        <v>140</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>177</v>
+        <v>141</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>178</v>
+        <v>142</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -2411,16 +2807,16 @@
         <v>12</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>179</v>
+        <v>143</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>160</v>
+        <v>124</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>161</v>
+        <v>125</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -2428,16 +2824,16 @@
         <v>12</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>182</v>
+        <v>146</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>181</v>
+        <v>145</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>180</v>
+        <v>144</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -2445,16 +2841,16 @@
         <v>12</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>185</v>
+        <v>149</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>184</v>
+        <v>148</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>183</v>
+        <v>147</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -2462,16 +2858,16 @@
         <v>12</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>188</v>
+        <v>152</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>187</v>
+        <v>151</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>186</v>
+        <v>150</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -2479,16 +2875,16 @@
         <v>12</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>190</v>
+        <v>154</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>191</v>
+        <v>155</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>189</v>
+        <v>153</v>
       </c>
     </row>
     <row r="66" ht="15.75" customHeight="1"/>
@@ -2549,10 +2945,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J29"/>
+  <dimension ref="A1:K41"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:K41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2569,7 +2965,7 @@
     <col min="10" max="10" width="14.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" ht="15.75" customHeight="1">
+    <row r="1" spans="1:11" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2601,901 +2997,1325 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
-      <c r="A2" t="s">
+    <row r="2" spans="1:11">
+      <c r="A2" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>270</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>271</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>272</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>273</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>274</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>275</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
+      <c r="B2" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>256</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>257</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>258</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>259</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>260</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>261</v>
+      </c>
+      <c r="I2" s="13" t="s">
+        <v>262</v>
+      </c>
+      <c r="J2" s="13" t="s">
+        <v>263</v>
+      </c>
+      <c r="K2" s="13"/>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" t="s">
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>49</v>
+        <v>256</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>277</v>
+        <v>264</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>278</v>
+        <v>265</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>279</v>
+        <v>266</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>280</v>
+        <v>267</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>281</v>
+        <v>268</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>282</v>
+        <v>269</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+        <v>270</v>
+      </c>
+      <c r="K3" s="13"/>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" t="s">
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>49</v>
+        <v>256</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>284</v>
+        <v>271</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>285</v>
+        <v>272</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>286</v>
+        <v>273</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>287</v>
+        <v>274</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>288</v>
+        <v>275</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>289</v>
+        <v>276</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
+        <v>277</v>
+      </c>
+      <c r="K4" s="13"/>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" t="s">
         <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>49</v>
+        <v>256</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>291</v>
+        <v>278</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>293</v>
+        <v>280</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>294</v>
+        <v>281</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>295</v>
+        <v>282</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>296</v>
+        <v>283</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
+        <v>284</v>
+      </c>
+      <c r="K5" s="13"/>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" t="s">
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>49</v>
+        <v>256</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>298</v>
+        <v>285</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>299</v>
+        <v>286</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>300</v>
+        <v>287</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>301</v>
+        <v>288</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>302</v>
+        <v>289</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>303</v>
+        <v>290</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
+        <v>291</v>
+      </c>
+      <c r="K6" s="13"/>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" t="s">
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>49</v>
+        <v>256</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>305</v>
+        <v>292</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>306</v>
+        <v>293</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>306</v>
+        <v>294</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>307</v>
+        <v>295</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
+        <v>298</v>
+      </c>
+      <c r="K7" s="13"/>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" t="s">
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>49</v>
+        <v>256</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>310</v>
+        <v>299</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>312</v>
+        <v>300</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>314</v>
+        <v>300</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>315</v>
+        <v>302</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
+        <v>303</v>
+      </c>
+      <c r="K8" s="13"/>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" t="s">
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>49</v>
+        <v>256</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>317</v>
+        <v>304</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>318</v>
+        <v>305</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>319</v>
+        <v>306</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>320</v>
+        <v>307</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>321</v>
+        <v>309</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
+        <v>310</v>
+      </c>
+      <c r="K9" s="13"/>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" t="s">
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>49</v>
+        <v>256</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>323</v>
+        <v>311</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>325</v>
+        <v>313</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>326</v>
+        <v>314</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>327</v>
+        <v>312</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>328</v>
+        <v>315</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
+        <v>316</v>
+      </c>
+      <c r="K10" s="13"/>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" t="s">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>49</v>
+        <v>256</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>330</v>
+        <v>317</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>331</v>
+        <v>318</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>332</v>
+        <v>319</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>333</v>
+        <v>320</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>334</v>
+        <v>321</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>335</v>
+        <v>322</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
+        <v>323</v>
+      </c>
+      <c r="K11" s="13"/>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" t="s">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>49</v>
+        <v>256</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>337</v>
+        <v>324</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>338</v>
+        <v>325</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>339</v>
+        <v>326</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>340</v>
+        <v>327</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>341</v>
+        <v>328</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>342</v>
+        <v>329</v>
       </c>
       <c r="J12" s="6" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
+        <v>330</v>
+      </c>
+      <c r="K12" s="13"/>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" t="s">
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="C13" t="s">
-        <v>49</v>
-      </c>
-      <c r="D13" t="s">
-        <v>13</v>
-      </c>
-      <c r="E13" t="s">
-        <v>14</v>
-      </c>
-      <c r="F13" t="s">
-        <v>15</v>
-      </c>
-      <c r="G13" t="s">
-        <v>16</v>
-      </c>
-      <c r="H13" t="s">
-        <v>17</v>
-      </c>
-      <c r="I13" t="s">
-        <v>18</v>
-      </c>
-      <c r="J13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
+        <v>256</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>331</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>335</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>336</v>
+      </c>
+      <c r="J13" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="K13" s="13"/>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" t="s">
         <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>49</v>
+        <v>256</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>257</v>
       </c>
       <c r="E14" t="s">
-        <v>21</v>
+        <v>258</v>
       </c>
       <c r="F14" t="s">
-        <v>22</v>
+        <v>259</v>
       </c>
       <c r="G14" t="s">
-        <v>23</v>
+        <v>260</v>
       </c>
       <c r="H14" t="s">
-        <v>24</v>
+        <v>261</v>
       </c>
       <c r="I14" t="s">
-        <v>25</v>
+        <v>262</v>
       </c>
       <c r="J14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
+        <v>263</v>
+      </c>
+      <c r="K14" s="13"/>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" t="s">
         <v>10</v>
       </c>
       <c r="B15" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="C15" t="s">
-        <v>49</v>
+        <v>256</v>
       </c>
       <c r="D15" t="s">
-        <v>27</v>
+        <v>338</v>
       </c>
       <c r="E15" t="s">
-        <v>28</v>
+        <v>339</v>
       </c>
       <c r="F15" t="s">
-        <v>29</v>
+        <v>340</v>
       </c>
       <c r="G15" t="s">
-        <v>30</v>
+        <v>341</v>
       </c>
       <c r="H15" t="s">
-        <v>31</v>
+        <v>342</v>
       </c>
       <c r="I15" t="s">
-        <v>32</v>
+        <v>343</v>
       </c>
       <c r="J15" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
+        <v>344</v>
+      </c>
+      <c r="K15" s="13"/>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" t="s">
         <v>10</v>
       </c>
       <c r="B16" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="C16" t="s">
-        <v>49</v>
+        <v>256</v>
       </c>
       <c r="D16" t="s">
-        <v>34</v>
+        <v>345</v>
       </c>
       <c r="E16" t="s">
-        <v>35</v>
+        <v>346</v>
       </c>
       <c r="F16" t="s">
-        <v>36</v>
+        <v>347</v>
       </c>
       <c r="G16" t="s">
-        <v>37</v>
+        <v>348</v>
       </c>
       <c r="H16" t="s">
-        <v>38</v>
+        <v>349</v>
       </c>
       <c r="I16" t="s">
-        <v>39</v>
+        <v>350</v>
       </c>
       <c r="J16" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
+        <v>351</v>
+      </c>
+      <c r="K16" s="13"/>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" t="s">
         <v>10</v>
       </c>
       <c r="B17" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="C17" t="s">
-        <v>49</v>
+        <v>256</v>
       </c>
       <c r="D17" t="s">
-        <v>41</v>
+        <v>352</v>
       </c>
       <c r="E17" t="s">
-        <v>42</v>
+        <v>353</v>
       </c>
       <c r="F17" t="s">
-        <v>43</v>
+        <v>354</v>
       </c>
       <c r="G17" t="s">
-        <v>44</v>
+        <v>355</v>
       </c>
       <c r="H17" t="s">
-        <v>45</v>
+        <v>356</v>
       </c>
       <c r="I17" t="s">
-        <v>46</v>
+        <v>357</v>
       </c>
       <c r="J17" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10">
-      <c r="A18" s="6" t="s">
+        <v>358</v>
+      </c>
+      <c r="K17" s="13"/>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" t="s">
         <v>10</v>
       </c>
       <c r="B18" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="C18" t="s">
-        <v>193</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>196</v>
-      </c>
-      <c r="G18" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="H18" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="I18" s="6" t="s">
-        <v>199</v>
-      </c>
-      <c r="J18" s="6" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10">
-      <c r="A19" t="s">
+        <v>256</v>
+      </c>
+      <c r="D18" t="s">
+        <v>359</v>
+      </c>
+      <c r="E18" t="s">
+        <v>360</v>
+      </c>
+      <c r="F18" t="s">
+        <v>361</v>
+      </c>
+      <c r="G18" t="s">
+        <v>362</v>
+      </c>
+      <c r="H18" t="s">
+        <v>363</v>
+      </c>
+      <c r="I18" t="s">
+        <v>364</v>
+      </c>
+      <c r="J18" t="s">
+        <v>365</v>
+      </c>
+      <c r="K18" s="13"/>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="6" t="s">
         <v>10</v>
       </c>
       <c r="B19" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="C19" t="s">
-        <v>49</v>
+        <v>157</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>201</v>
+        <v>366</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>202</v>
+        <v>367</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>202</v>
+        <v>368</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>203</v>
+        <v>369</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>204</v>
+        <v>370</v>
       </c>
       <c r="I19" s="6" t="s">
-        <v>205</v>
+        <v>371</v>
       </c>
       <c r="J19" s="6" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10">
+        <v>372</v>
+      </c>
+      <c r="K19" s="13"/>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" t="s">
         <v>10</v>
       </c>
       <c r="B20" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="C20" t="s">
-        <v>49</v>
+        <v>256</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>207</v>
+        <v>373</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>208</v>
+        <v>374</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>208</v>
+        <v>374</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>209</v>
+        <v>375</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>210</v>
+        <v>376</v>
       </c>
       <c r="I20" s="6" t="s">
-        <v>211</v>
+        <v>377</v>
       </c>
       <c r="J20" s="6" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10">
+        <v>378</v>
+      </c>
+      <c r="K20" s="13"/>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" t="s">
         <v>10</v>
       </c>
       <c r="B21" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="C21" t="s">
-        <v>49</v>
+        <v>256</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>213</v>
+        <v>379</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>214</v>
+        <v>380</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>215</v>
+        <v>380</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>216</v>
+        <v>381</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>217</v>
+        <v>382</v>
       </c>
       <c r="I21" s="6" t="s">
-        <v>218</v>
+        <v>383</v>
       </c>
       <c r="J21" s="6" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10">
+        <v>384</v>
+      </c>
+      <c r="K21" s="13"/>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" t="s">
         <v>10</v>
       </c>
       <c r="B22" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="C22" t="s">
-        <v>49</v>
+        <v>256</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>220</v>
+        <v>385</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>221</v>
+        <v>386</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>144</v>
+        <v>387</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>222</v>
+        <v>388</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>223</v>
+        <v>389</v>
       </c>
       <c r="I22" s="6" t="s">
-        <v>224</v>
+        <v>390</v>
       </c>
       <c r="J22" s="6" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10">
+        <v>391</v>
+      </c>
+      <c r="K22" s="13"/>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" t="s">
         <v>10</v>
       </c>
       <c r="B23" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="C23" t="s">
-        <v>49</v>
+        <v>256</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>226</v>
+        <v>392</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>227</v>
+        <v>393</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>227</v>
+        <v>108</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>228</v>
+        <v>394</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>229</v>
+        <v>395</v>
       </c>
       <c r="I23" s="6" t="s">
-        <v>230</v>
+        <v>396</v>
       </c>
       <c r="J23" s="6" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10">
+        <v>397</v>
+      </c>
+      <c r="K23" s="13"/>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" t="s">
         <v>10</v>
       </c>
       <c r="B24" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="C24" t="s">
-        <v>49</v>
+        <v>256</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>232</v>
+        <v>398</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>233</v>
+        <v>399</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>234</v>
+        <v>399</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>235</v>
+        <v>400</v>
       </c>
       <c r="H24" s="6" t="s">
-        <v>236</v>
+        <v>401</v>
       </c>
       <c r="I24" s="6" t="s">
-        <v>237</v>
+        <v>402</v>
       </c>
       <c r="J24" s="6" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10">
+        <v>403</v>
+      </c>
+      <c r="K24" s="13"/>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" t="s">
         <v>10</v>
       </c>
       <c r="B25" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="C25" t="s">
-        <v>49</v>
+        <v>256</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>239</v>
+        <v>404</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>240</v>
+        <v>405</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>241</v>
+        <v>406</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>242</v>
+        <v>407</v>
       </c>
       <c r="H25" s="6" t="s">
-        <v>243</v>
+        <v>408</v>
       </c>
       <c r="I25" s="6" t="s">
-        <v>244</v>
+        <v>409</v>
       </c>
       <c r="J25" s="6" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10">
+        <v>410</v>
+      </c>
+      <c r="K25" s="13"/>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" t="s">
         <v>10</v>
       </c>
       <c r="B26" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="C26" t="s">
-        <v>49</v>
+        <v>256</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>246</v>
+        <v>411</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>247</v>
+        <v>412</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>247</v>
+        <v>413</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>248</v>
+        <v>414</v>
       </c>
       <c r="H26" s="6" t="s">
-        <v>249</v>
+        <v>415</v>
       </c>
       <c r="I26" s="6" t="s">
-        <v>250</v>
+        <v>416</v>
       </c>
       <c r="J26" s="6" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10">
+        <v>417</v>
+      </c>
+      <c r="K26" s="13"/>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" t="s">
         <v>10</v>
       </c>
       <c r="B27" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="C27" t="s">
-        <v>49</v>
+        <v>256</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>252</v>
+        <v>418</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>253</v>
+        <v>419</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>254</v>
+        <v>419</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>255</v>
+        <v>420</v>
       </c>
       <c r="H27" s="6" t="s">
-        <v>256</v>
+        <v>421</v>
       </c>
       <c r="I27" s="6" t="s">
-        <v>257</v>
+        <v>422</v>
       </c>
       <c r="J27" s="6" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10">
+        <v>423</v>
+      </c>
+      <c r="K27" s="13"/>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" t="s">
         <v>10</v>
       </c>
       <c r="B28" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="C28" t="s">
-        <v>49</v>
+        <v>256</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>259</v>
+        <v>424</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>117</v>
+        <v>425</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>118</v>
+        <v>426</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>260</v>
+        <v>427</v>
       </c>
       <c r="H28" s="6" t="s">
-        <v>261</v>
+        <v>428</v>
       </c>
       <c r="I28" s="6" t="s">
-        <v>262</v>
+        <v>429</v>
       </c>
       <c r="J28" s="6" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10">
+        <v>430</v>
+      </c>
+      <c r="K28" s="13"/>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" t="s">
         <v>10</v>
       </c>
       <c r="B29" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="C29" t="s">
-        <v>49</v>
+        <v>256</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>264</v>
+        <v>431</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>265</v>
+        <v>81</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>266</v>
+        <v>82</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>267</v>
+        <v>432</v>
       </c>
       <c r="H29" s="6" t="s">
-        <v>265</v>
+        <v>433</v>
       </c>
       <c r="I29" s="6" t="s">
-        <v>268</v>
+        <v>434</v>
       </c>
       <c r="J29" s="6" t="s">
-        <v>269</v>
-      </c>
+        <v>435</v>
+      </c>
+      <c r="K29" s="13"/>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" t="s">
+        <v>256</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>436</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>437</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>438</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="H30" s="6" t="s">
+        <v>437</v>
+      </c>
+      <c r="I30" s="6" t="s">
+        <v>440</v>
+      </c>
+      <c r="J30" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="K30" s="13"/>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B31" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C31" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="D31" s="15" t="s">
+        <v>179</v>
+      </c>
+      <c r="E31" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="F31" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="G31" s="15" t="s">
+        <v>182</v>
+      </c>
+      <c r="H31" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="I31" s="15" t="s">
+        <v>184</v>
+      </c>
+      <c r="J31" s="15" t="s">
+        <v>185</v>
+      </c>
+      <c r="K31" s="13"/>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C32" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="H32" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="I32" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="J32" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="K32" s="13"/>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C33" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="E33" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="F33" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="G33" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="H33" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="I33" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="J33" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="K33" s="13"/>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C34" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="E34" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="F34" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="G34" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="H34" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="I34" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="J34" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="K34" s="13"/>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C35" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="E35" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="F35" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="G35" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="H35" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="I35" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="J35" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="K35" s="13"/>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C36" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="E36" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="F36" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="G36" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="H36" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="I36" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="J36" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="K36" s="13"/>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C37" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="D37" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="E37" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="F37" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="G37" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="H37" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="I37" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="J37" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="K37" s="13"/>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C38" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="E38" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="F38" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="G38" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="H38" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="I38" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="J38" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="K38" s="13"/>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C39" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="E39" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="F39" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="G39" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="H39" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="I39" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="J39" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="K39" s="13"/>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="A40" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C40" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="D40" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="E40" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="F40" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="G40" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="H40" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="I40" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="J40" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="K40" s="13"/>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="A41" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C41" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="D41" s="11" t="s">
+        <v>249</v>
+      </c>
+      <c r="E41" s="11" t="s">
+        <v>250</v>
+      </c>
+      <c r="F41" s="11" t="s">
+        <v>251</v>
+      </c>
+      <c r="G41" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="H41" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="I41" s="11" t="s">
+        <v>254</v>
+      </c>
+      <c r="J41" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="K41" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DataFile/TraslationFile.xlsx
+++ b/DataFile/TraslationFile.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="812" uniqueCount="520">
   <si>
     <t xml:space="preserve">product name </t>
   </si>
@@ -65,16 +65,673 @@
     <t>RetterAlarm - APP</t>
   </si>
   <si>
+    <t>Devcie Details</t>
+  </si>
+  <si>
+    <t>device_service_recommendation_test_note_one_many_use_without_test</t>
+  </si>
+  <si>
+    <t>A visual and functional test must be performed after each use.</t>
+  </si>
+  <si>
+    <t>Nach jedem Gebrauch muss eine Sicht- und Funktionsprüfung durchgeführt werden.</t>
+  </si>
+  <si>
+    <t>Se debe realizar una prueba visual y funcional después de cada uso.</t>
+  </si>
+  <si>
+    <t>Un test visuel et fonctionnel doit être effectué après chaque utilisation.</t>
+  </si>
+  <si>
+    <t>Po vsaki uporabi je treba opraviti vizualni in funkcionalni test.</t>
+  </si>
+  <si>
+    <t>使用のたびに外観と機能のテストを行う必要があります。</t>
+  </si>
+  <si>
+    <t>device_service_recommendation_note_two_service_date_expired</t>
+  </si>
+  <si>
+    <t>The service is overdue, please contact your service partner!</t>
+  </si>
+  <si>
+    <t>Die Wartung ist überfällig, bitte kontaktieren Sie Ihren Servicepartner!</t>
+  </si>
+  <si>
+    <t>El mantenimiento está vencido, ¡por favor contacte a su proveedor de servicio!</t>
+  </si>
+  <si>
+    <t>Le service est en retard, veuillez contacter votre partenaire de service !</t>
+  </si>
+  <si>
+    <t>Servis je zapadel, prosimo kontaktirajte svojega servisnega partnerja!</t>
+  </si>
+  <si>
+    <t>サービスの期限が過ぎています。サービスパートナーに連絡してください。</t>
+  </si>
+  <si>
+    <t>device_service_recommendation_note_three_service_date_expired_more_than_365_days</t>
+  </si>
+  <si>
+    <t>The service is long overdue, please contact your service partner immediately!</t>
+  </si>
+  <si>
+    <t>Die Wartung ist stark überfällig, bitte kontaktieren Sie umgehend Ihren Servicepartner!</t>
+  </si>
+  <si>
+    <t>El mantenimiento está muy atrasado, ¡por favor contacte de inmediato a su proveedor de servicio!</t>
+  </si>
+  <si>
+    <t>Le service est très en retard, veuillez contacter immédiatement votre partenaire de service !</t>
+  </si>
+  <si>
+    <t>Servis je močno zapadel, prosimo, nemudoma kontaktirajte svojega servisnega partnerja!</t>
+  </si>
+  <si>
+    <t>サービスの期限が大幅に過ぎています。すぐにサービスパートナーに連絡してください。</t>
+  </si>
+  <si>
+    <t>device_service_recommendation_note_four_yellow_flag_repeat</t>
+  </si>
+  <si>
+    <t>The latest self-test shows some irregularities, repeat it or contact your service partner.</t>
+  </si>
+  <si>
+    <t>Der letzte Selbsttest zeigt einige Unregelmäßigkeiten, wiederholen Sie ihn oder kontaktieren Sie Ihren Servicepartner.</t>
+  </si>
+  <si>
+    <t>La última autoevaluación muestra algunas irregularidades, repítala o contacte a su socio de servicio.</t>
+  </si>
+  <si>
+    <t>Le dernier autotest présente certaines irrégularités, répétez-le ou contactez votre partenaire de service.</t>
+  </si>
+  <si>
+    <t>Zadnji samopreizkus je pokazal nepravilnosti. Ponovite ga ali se obrnite na svojega servisnega partnerja.</t>
+  </si>
+  <si>
+    <t>最新のセルフテストでいくつかの異常が検出されました。再実行するか、サービスパートナーに連絡してください。</t>
+  </si>
+  <si>
+    <t>device_service_recommendation_note_five_last_result_red_flag</t>
+  </si>
+  <si>
+    <t>The latest self-test shows an important problem. Please repeat the test or contact your service partner.</t>
+  </si>
+  <si>
+    <t>Der letzte Selbsttest zeigt ein wichtiges Problem. Bitte wiederholen Sie den Test oder kontaktieren Sie Ihren Servicepartner.</t>
+  </si>
+  <si>
+    <t>La última autoprueba muestra un problema importante. Por favor, repita la prueba o contacte a su proveedor de servicio.</t>
+  </si>
+  <si>
+    <t>Le dernier autotest révèle un problème important. Veuillez répéter le test ou contacter votre partenaire de service.</t>
+  </si>
+  <si>
+    <t>Zadnji samopreizkus je pokazal pomembno težavo. Ponovite test ali se obrnite na svojega servisnega partnerja.</t>
+  </si>
+  <si>
+    <t>最新のセルフテストで重大な問題が確認されました。テストを再実行するか、サービスパートナーに連絡してください。</t>
+  </si>
+  <si>
+    <t>event_list</t>
+  </si>
+  <si>
+    <t>Event List</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ereignisliste </t>
+  </si>
+  <si>
+    <t>availabilty_list</t>
+  </si>
+  <si>
+    <t>Availabilty List</t>
+  </si>
+  <si>
+    <t>Verfügbarkeitsliste</t>
+  </si>
+  <si>
+    <t>event</t>
+  </si>
+  <si>
+    <t>Event</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ereignis </t>
+  </si>
+  <si>
+    <t>create_un_availability</t>
+  </si>
+  <si>
+    <t>Create un-availability</t>
+  </si>
+  <si>
+    <t>Nichtverfügbarkeit erstellen</t>
+  </si>
+  <si>
+    <t>recurring</t>
+  </si>
+  <si>
+    <t>Recurring</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wiederkehrend </t>
+  </si>
+  <si>
+    <t>full_day_event</t>
+  </si>
+  <si>
+    <t>Full Day Event</t>
+  </si>
+  <si>
+    <t>Ganztägige Veranstaltung</t>
+  </si>
+  <si>
+    <t>enter_first_name</t>
+  </si>
+  <si>
+    <t>Enter your first name</t>
+  </si>
+  <si>
+    <t>Gib deinen Vornamen ein</t>
+  </si>
+  <si>
+    <t>enter_last_name</t>
+  </si>
+  <si>
+    <t>Enter your last name</t>
+  </si>
+  <si>
+    <t>Gib deinen Nachnamen ein</t>
+  </si>
+  <si>
+    <t>time_overview</t>
+  </si>
+  <si>
+    <t>Time Overview</t>
+  </si>
+  <si>
+    <t>Zeitübersicht</t>
+  </si>
+  <si>
+    <t>holiday_plan</t>
+  </si>
+  <si>
+    <t>Holiday Plan</t>
+  </si>
+  <si>
+    <t>Urlaubsplan</t>
+  </si>
+  <si>
+    <t>select_date</t>
+  </si>
+  <si>
+    <t>Select Date</t>
+  </si>
+  <si>
+    <t>Datum auswählen</t>
+  </si>
+  <si>
+    <t>list_of_work_time</t>
+  </si>
+  <si>
+    <t>List of work time</t>
+  </si>
+  <si>
+    <t>Liste der Arbeitszeiten</t>
+  </si>
+  <si>
+    <t>out</t>
+  </si>
+  <si>
+    <t>Out</t>
+  </si>
+  <si>
+    <t>Aus</t>
+  </si>
+  <si>
+    <t>work_time</t>
+  </si>
+  <si>
+    <t>Work Time</t>
+  </si>
+  <si>
+    <t>Arbeitszeit</t>
+  </si>
+  <si>
+    <t>casual_leave</t>
+  </si>
+  <si>
+    <t>Casual Leave</t>
+  </si>
+  <si>
+    <t>Gelegentlicher Urlaub</t>
+  </si>
+  <si>
+    <t>ensure_alarms_sound_when_device_in_silen_do_not_disturb_mode</t>
+  </si>
+  <si>
+    <t>Ensure alarms sound even when your device is on silent or Do Not Disturb mode.</t>
+  </si>
+  <si>
+    <t>Stellen Sie sicher, dass Alarme ertönen, auch wenn Ihr Gerät auf Lautlos oder im Nicht stören-Modus ist.</t>
+  </si>
+  <si>
+    <t>calendar_related_options</t>
+  </si>
+  <si>
+    <t>Calendar related options</t>
+  </si>
+  <si>
+    <t>Kalenderbezogene Optionen</t>
+  </si>
+  <si>
+    <t>receive_notifications_or_alarms_when_no_devices_or_services_are_available</t>
+  </si>
+  <si>
+    <t>Receive notifications or alarms when no devices or services are available.</t>
+  </si>
+  <si>
+    <t>Erhalten Sie Benachrichtigungen oder Alarme, wenn keine Geräte oder Dienste verfügbar sind.</t>
+  </si>
+  <si>
+    <t>default_calendar_view</t>
+  </si>
+  <si>
+    <t>Default calendar view</t>
+  </si>
+  <si>
+    <t>Standard-Kalenderansicht</t>
+  </si>
+  <si>
+    <t>select_the_default_calendar_view_from_the_list</t>
+  </si>
+  <si>
+    <t>Select the default calendar view from the list.</t>
+  </si>
+  <si>
+    <t>Wählen Sie die Standard-Kalenderansicht aus der Liste aus.</t>
+  </si>
+  <si>
+    <t>Agenda</t>
+  </si>
+  <si>
+    <t>Tagesordnung</t>
+  </si>
+  <si>
     <t>Vehicle</t>
   </si>
   <si>
     <t>Fahrzeug</t>
   </si>
   <si>
+    <t>select_vehicle_type</t>
+  </si>
+  <si>
+    <t>Select Vehicle Type</t>
+  </si>
+  <si>
+    <t>Fahrzeugtyp auswählen</t>
+  </si>
+  <si>
+    <t>select_your_preferred_vehicle_type_or_manage_vehicle_settings</t>
+  </si>
+  <si>
+    <t>Select your preferred vehicle type or manage vehicle settings.</t>
+  </si>
+  <si>
+    <t>Wählen Sie Ihren bevorzugten Fahrzeugtyp aus oder verwalten Sie die Fahrzeugeinstellungen.</t>
+  </si>
+  <si>
+    <t>Battery</t>
+  </si>
+  <si>
+    <t>Batterie</t>
+  </si>
+  <si>
+    <t>prevent_battery_saver_from_limiting_alarm_functionality_for_reliable_alerts</t>
+  </si>
+  <si>
+    <t>Prevent battery saver from limiting alarm functionality for reliable alerts.</t>
+  </si>
+  <si>
+    <t>Verhindern Sie, dass der Energiesparmodus die Alarmfunktionen einschränkt, um zuverlässige Benachrichtigungen zu gewährleisten.</t>
+  </si>
+  <si>
+    <t>play_sound</t>
+  </si>
+  <si>
+    <t>Play Sound</t>
+  </si>
+  <si>
+    <t>Ton abspielen</t>
+  </si>
+  <si>
+    <t>test_alarm_sound</t>
+  </si>
+  <si>
+    <t>Test alarm sound</t>
+  </si>
+  <si>
+    <t>Alarmton testen</t>
+  </si>
+  <si>
+    <t>play_sample_alarm_sound_to_check_the_volume_and_tone</t>
+  </si>
+  <si>
+    <t>Play a sample alarm sound to check the volume and tone.</t>
+  </si>
+  <si>
+    <t>Spielen Sie einen Beispiel-Alarmton ab, um Lautstärke und Klang zu überprüfen.</t>
+  </si>
+  <si>
+    <t>about_app</t>
+  </si>
+  <si>
+    <t>About APP</t>
+  </si>
+  <si>
+    <t>Über die App</t>
+  </si>
+  <si>
+    <t>device_name</t>
+  </si>
+  <si>
+    <t>Device name</t>
+  </si>
+  <si>
     <t>Gerätename</t>
   </si>
   <si>
-    <t>Devcie Details</t>
+    <t>app_version</t>
+  </si>
+  <si>
+    <t>App Version</t>
+  </si>
+  <si>
+    <t>os_version</t>
+  </si>
+  <si>
+    <t>OS version</t>
+  </si>
+  <si>
+    <t>Betriebssystemversion</t>
+  </si>
+  <si>
+    <t>send_logs_to_support</t>
+  </si>
+  <si>
+    <t>Send logs to support</t>
+  </si>
+  <si>
+    <t>Protokolle an den Support senden</t>
+  </si>
+  <si>
+    <t>update_password</t>
+  </si>
+  <si>
+    <t>Update Password</t>
+  </si>
+  <si>
+    <t>Passwort aktualisieren</t>
+  </si>
+  <si>
+    <t>date_of_birth</t>
+  </si>
+  <si>
+    <t>Date of birth</t>
+  </si>
+  <si>
+    <t>Geburtsdatum</t>
+  </si>
+  <si>
+    <t>mobile_no</t>
+  </si>
+  <si>
+    <t>Mobile No.</t>
+  </si>
+  <si>
+    <t>Handynummer</t>
+  </si>
+  <si>
+    <t>select_station</t>
+  </si>
+  <si>
+    <t>Select Station</t>
+  </si>
+  <si>
+    <t>Station auswählen</t>
+  </si>
+  <si>
+    <t>basic_details</t>
+  </si>
+  <si>
+    <t>Basic Details</t>
+  </si>
+  <si>
+    <t>Grundlegende Angaben</t>
+  </si>
+  <si>
+    <t>contact_details</t>
+  </si>
+  <si>
+    <t>Contact Details</t>
+  </si>
+  <si>
+    <t>Kontaktangaben</t>
+  </si>
+  <si>
+    <t>allow_users_to_modify_their_personal_data</t>
+  </si>
+  <si>
+    <t>Allows users to modify their personal data.</t>
+  </si>
+  <si>
+    <t>Ermöglicht Nutzern, ihre persönlichen Daten zu bearbeiten.</t>
+  </si>
+  <si>
+    <t>update_your_passowrd_to_keep_your_account_secure</t>
+  </si>
+  <si>
+    <t>Update your password to keep your account secure.</t>
+  </si>
+  <si>
+    <t>Aktualisieren Sie Ihr Passwort, um Ihr Konto zu schützen.</t>
+  </si>
+  <si>
+    <t>language</t>
+  </si>
+  <si>
+    <t>Language</t>
+  </si>
+  <si>
+    <t>Sprache</t>
+  </si>
+  <si>
+    <t>select_the_language_you_are_most_comfortable_with</t>
+  </si>
+  <si>
+    <t>Select the language you are most comfortable with.</t>
+  </si>
+  <si>
+    <t>Wählen Sie die Sprache aus, mit der Sie sich am wohlsten fühlen.</t>
+  </si>
+  <si>
+    <t>sound</t>
+  </si>
+  <si>
+    <t>Sound</t>
+  </si>
+  <si>
+    <t>Ton</t>
+  </si>
+  <si>
+    <t>sounds_setting</t>
+  </si>
+  <si>
+    <t>Sounds setting</t>
+  </si>
+  <si>
+    <t>Toneinstellung</t>
+  </si>
+  <si>
+    <t>sounds_setting_customize_sound_info</t>
+  </si>
+  <si>
+    <t>Customize sound for Alarm, Event, information, availability, chat, sound override, do not disturb.</t>
+  </si>
+  <si>
+    <t>Passen Sie den Ton für Alarm, Ereignisse, Informationen, Verfügbarkeit, Chat, Tonüberschreibung und Nicht stören an.</t>
+  </si>
+  <si>
+    <t>customize_the_alarm_tone_to_your_preference</t>
+  </si>
+  <si>
+    <t>Customize the alarm tone to your preference.</t>
+  </si>
+  <si>
+    <t>Passen Sie den Alarmton nach Ihren Wünschen an.</t>
+  </si>
+  <si>
+    <t>change_the_information_ringtone_as_needed</t>
+  </si>
+  <si>
+    <t>Change the information ringtone as needed.</t>
+  </si>
+  <si>
+    <t>Ändern Sie den Informations-Klingelton bei Bedarf.</t>
+  </si>
+  <si>
+    <t>customize_your_event_notification_sound</t>
+  </si>
+  <si>
+    <t>Customize your event notification sound.</t>
+  </si>
+  <si>
+    <t>Passen Sie Ihren Benachrichtigungston für Ereignisse an.</t>
+  </si>
+  <si>
+    <t>modify_the_alarm_sound_to_your_liking</t>
+  </si>
+  <si>
+    <t>Modify the alarm sound to your liking.</t>
+  </si>
+  <si>
+    <t>Ändern Sie den Alarmton nach Ihrem Geschmack.</t>
+  </si>
+  <si>
+    <t>personalize_your_chat_sound</t>
+  </si>
+  <si>
+    <t>Personalize your chat sound.</t>
+  </si>
+  <si>
+    <t>Personalisieren Sie Ihren Chat-Ton.</t>
+  </si>
+  <si>
+    <t>notification_sound</t>
+  </si>
+  <si>
+    <t>Notification Sound</t>
+  </si>
+  <si>
+    <t>Benachrichtigungston</t>
+  </si>
+  <si>
+    <t>mute_alarm</t>
+  </si>
+  <si>
+    <t>Mute Alarm</t>
+  </si>
+  <si>
+    <t>Alarm stummschalten</t>
+  </si>
+  <si>
+    <t>allows_users_to_modify_their_personal_data</t>
+  </si>
+  <si>
+    <t>overrides_silent_mode_to_play_a_loud_alarm</t>
+  </si>
+  <si>
+    <t>Overrides silent mode to play a loud alarm.</t>
+  </si>
+  <si>
+    <t>Hebt den Lautlos-Modus auf, um einen lauten Alarm abzuspielen.</t>
+  </si>
+  <si>
+    <t>modify_do_not_disturb_to_allow_important_alerts</t>
+  </si>
+  <si>
+    <t>Modify Do Not Disturb to allow important alerts.</t>
+  </si>
+  <si>
+    <t>Ändern Sie den Nicht stören-Modus, um wichtige Benachrichtigungen zuzulassen.</t>
+  </si>
+  <si>
+    <t>enter_your_full_name</t>
+  </si>
+  <si>
+    <t>Enter your full name</t>
+  </si>
+  <si>
+    <t>Geben Sie Ihren vollständigen Namen ein</t>
+  </si>
+  <si>
+    <t>contact_email</t>
+  </si>
+  <si>
+    <t>Mail-ID</t>
+  </si>
+  <si>
+    <t>Mail-I</t>
+  </si>
+  <si>
+    <t>enter_valid_mail_address</t>
+  </si>
+  <si>
+    <t>Enter valid mail address</t>
+  </si>
+  <si>
+    <t>Geben Sie eine gültige E-Mail-Adresse ein</t>
+  </si>
+  <si>
+    <t>contact_phone</t>
+  </si>
+  <si>
+    <t>enter_mobile_number</t>
+  </si>
+  <si>
+    <t>Enter mobile number</t>
+  </si>
+  <si>
+    <t>Geben Sie Ihre Handynummer ein</t>
+  </si>
+  <si>
+    <t>write_your_message</t>
+  </si>
+  <si>
+    <t>Write your message</t>
+  </si>
+  <si>
+    <t>Schreiben Sie Ihre Nachricht</t>
+  </si>
+  <si>
+    <t>send_query</t>
+  </si>
+  <si>
+    <t>Send query</t>
+  </si>
+  <si>
+    <t>Anfrage senden</t>
+  </si>
+  <si>
+    <t>support_log_in_below_attached_file</t>
+  </si>
+  <si>
+    <t>Support log in below attached file</t>
+  </si>
+  <si>
+    <t>Support-Protokoll in der unten angehängten Datei</t>
   </si>
   <si>
     <t>type_here</t>
@@ -227,589 +884,700 @@
     <t>Sa</t>
   </si>
   <si>
-    <t>time_overview</t>
-  </si>
-  <si>
-    <t>Time Overview</t>
-  </si>
-  <si>
-    <t>Zeitübersicht</t>
-  </si>
-  <si>
-    <t>holiday_plan</t>
-  </si>
-  <si>
-    <t>Holiday Plan</t>
-  </si>
-  <si>
-    <t>Urlaubsplan</t>
-  </si>
-  <si>
-    <t>select_date</t>
-  </si>
-  <si>
-    <t>Select Date</t>
-  </si>
-  <si>
-    <t>Datum auswählen</t>
-  </si>
-  <si>
-    <t>list_of_work_time</t>
-  </si>
-  <si>
-    <t>List of work time</t>
-  </si>
-  <si>
-    <t>Liste der Arbeitszeiten</t>
-  </si>
-  <si>
-    <t>out</t>
-  </si>
-  <si>
-    <t>Out</t>
-  </si>
-  <si>
-    <t>Aus</t>
-  </si>
-  <si>
-    <t>work_time</t>
-  </si>
-  <si>
-    <t>Work Time</t>
-  </si>
-  <si>
-    <t>Arbeitszeit</t>
-  </si>
-  <si>
-    <t>casual_leave</t>
-  </si>
-  <si>
-    <t>Casual Leave</t>
-  </si>
-  <si>
-    <t>Gelegentlicher Urlaub</t>
-  </si>
-  <si>
-    <t>ensure_alarms_sound_when_device_in_silen_do_not_disturb_mode</t>
-  </si>
-  <si>
-    <t>Ensure alarms sound even when your device is on silent or Do Not Disturb mode.</t>
-  </si>
-  <si>
-    <t>Stellen Sie sicher, dass Alarme ertönen, auch wenn Ihr Gerät auf Lautlos oder im Nicht stören-Modus ist.</t>
-  </si>
-  <si>
-    <t>calendar_related_options</t>
-  </si>
-  <si>
-    <t>Calendar related options</t>
-  </si>
-  <si>
-    <t>Kalenderbezogene Optionen</t>
-  </si>
-  <si>
-    <t>receive_notifications_or_alarms_when_no_devices_or_services_are_available</t>
-  </si>
-  <si>
-    <t>Receive notifications or alarms when no devices or services are available.</t>
-  </si>
-  <si>
-    <t>Erhalten Sie Benachrichtigungen oder Alarme, wenn keine Geräte oder Dienste verfügbar sind.</t>
-  </si>
-  <si>
-    <t>default_calendar_view</t>
-  </si>
-  <si>
-    <t>Default calendar view</t>
-  </si>
-  <si>
-    <t>Standard-Kalenderansicht</t>
-  </si>
-  <si>
-    <t>select_the_default_calendar_view_from_the_list</t>
-  </si>
-  <si>
-    <t>Select the default calendar view from the list.</t>
-  </si>
-  <si>
-    <t>Wählen Sie die Standard-Kalenderansicht aus der Liste aus.</t>
-  </si>
-  <si>
-    <t>Agenda</t>
-  </si>
-  <si>
-    <t>Tagesordnung</t>
-  </si>
-  <si>
-    <t>select_vehicle_type</t>
-  </si>
-  <si>
-    <t>Select Vehicle Type</t>
-  </si>
-  <si>
-    <t>Fahrzeugtyp auswählen</t>
-  </si>
-  <si>
-    <t>select_your_preferred_vehicle_type_or_manage_vehicle_settings</t>
-  </si>
-  <si>
-    <t>Select your preferred vehicle type or manage vehicle settings.</t>
-  </si>
-  <si>
-    <t>Wählen Sie Ihren bevorzugten Fahrzeugtyp aus oder verwalten Sie die Fahrzeugeinstellungen.</t>
-  </si>
-  <si>
-    <t>Battery</t>
-  </si>
-  <si>
-    <t>Batterie</t>
-  </si>
-  <si>
-    <t>prevent_battery_saver_from_limiting_alarm_functionality_for_reliable_alerts</t>
-  </si>
-  <si>
-    <t>Prevent battery saver from limiting alarm functionality for reliable alerts.</t>
-  </si>
-  <si>
-    <t>Verhindern Sie, dass der Energiesparmodus die Alarmfunktionen einschränkt, um zuverlässige Benachrichtigungen zu gewährleisten.</t>
-  </si>
-  <si>
-    <t>play_sound</t>
-  </si>
-  <si>
-    <t>Play Sound</t>
-  </si>
-  <si>
-    <t>Ton abspielen</t>
-  </si>
-  <si>
-    <t>test_alarm_sound</t>
-  </si>
-  <si>
-    <t>Test alarm sound</t>
-  </si>
-  <si>
-    <t>Alarmton testen</t>
-  </si>
-  <si>
-    <t>play_sample_alarm_sound_to_check_the_volume_and_tone</t>
-  </si>
-  <si>
-    <t>Play a sample alarm sound to check the volume and tone.</t>
-  </si>
-  <si>
-    <t>Spielen Sie einen Beispiel-Alarmton ab, um Lautstärke und Klang zu überprüfen.</t>
-  </si>
-  <si>
-    <t>about_app</t>
-  </si>
-  <si>
-    <t>About APP</t>
-  </si>
-  <si>
-    <t>Über die App</t>
-  </si>
-  <si>
-    <t>device_name</t>
-  </si>
-  <si>
-    <t>Device name</t>
-  </si>
-  <si>
-    <t>app_version</t>
-  </si>
-  <si>
-    <t>App Version</t>
-  </si>
-  <si>
-    <t>os_version</t>
-  </si>
-  <si>
-    <t>OS version</t>
-  </si>
-  <si>
-    <t>Betriebssystemversion</t>
-  </si>
-  <si>
-    <t>send_logs_to_support</t>
-  </si>
-  <si>
-    <t>Send logs to support</t>
-  </si>
-  <si>
-    <t>Protokolle an den Support senden</t>
-  </si>
-  <si>
-    <t>update_password</t>
-  </si>
-  <si>
-    <t>Update Password</t>
-  </si>
-  <si>
-    <t>Passwort aktualisieren</t>
-  </si>
-  <si>
-    <t>date_of_birth</t>
-  </si>
-  <si>
-    <t>Date of birth</t>
-  </si>
-  <si>
-    <t>Geburtsdatum</t>
-  </si>
-  <si>
-    <t>mobile_no</t>
-  </si>
-  <si>
-    <t>Mobile No.</t>
-  </si>
-  <si>
-    <t>Handynummer</t>
-  </si>
-  <si>
-    <t>select_station</t>
-  </si>
-  <si>
-    <t>Select Station</t>
-  </si>
-  <si>
-    <t>Station auswählen</t>
-  </si>
-  <si>
-    <t>basic_details</t>
-  </si>
-  <si>
-    <t>Basic Details</t>
-  </si>
-  <si>
-    <t>Grundlegende Angaben</t>
-  </si>
-  <si>
-    <t>contact_details</t>
-  </si>
-  <si>
-    <t>Contact Details</t>
-  </si>
-  <si>
-    <t>Kontaktangaben</t>
-  </si>
-  <si>
-    <t>allow_users_to_modify_their_personal_data</t>
-  </si>
-  <si>
-    <t>Allows users to modify their personal data.</t>
-  </si>
-  <si>
-    <t>Ermöglicht Nutzern, ihre persönlichen Daten zu bearbeiten.</t>
-  </si>
-  <si>
-    <t>update_your_passowrd_to_keep_your_account_secure</t>
-  </si>
-  <si>
-    <t>Update your password to keep your account secure.</t>
-  </si>
-  <si>
-    <t>Aktualisieren Sie Ihr Passwort, um Ihr Konto zu schützen.</t>
-  </si>
-  <si>
-    <t>language</t>
-  </si>
-  <si>
-    <t>Language</t>
-  </si>
-  <si>
-    <t>Sprache</t>
-  </si>
-  <si>
-    <t>select_the_language_you_are_most_comfortable_with</t>
-  </si>
-  <si>
-    <t>Select the language you are most comfortable with.</t>
-  </si>
-  <si>
-    <t>Wählen Sie die Sprache aus, mit der Sie sich am wohlsten fühlen.</t>
-  </si>
-  <si>
-    <t>sound</t>
-  </si>
-  <si>
-    <t>Sound</t>
-  </si>
-  <si>
-    <t>Ton</t>
-  </si>
-  <si>
-    <t>sounds_setting</t>
-  </si>
-  <si>
-    <t>Sounds setting</t>
-  </si>
-  <si>
-    <t>Toneinstellung</t>
-  </si>
-  <si>
-    <t>sounds_setting_customize_sound_info</t>
-  </si>
-  <si>
-    <t>Customize sound for Alarm, Event, information, availability, chat, sound override, do not disturb.</t>
-  </si>
-  <si>
-    <t>Passen Sie den Ton für Alarm, Ereignisse, Informationen, Verfügbarkeit, Chat, Tonüberschreibung und Nicht stören an.</t>
-  </si>
-  <si>
-    <t>customize_the_alarm_tone_to_your_preference</t>
-  </si>
-  <si>
-    <t>Customize the alarm tone to your preference.</t>
-  </si>
-  <si>
-    <t>Passen Sie den Alarmton nach Ihren Wünschen an.</t>
-  </si>
-  <si>
-    <t>change_the_information_ringtone_as_needed</t>
-  </si>
-  <si>
-    <t>Change the information ringtone as needed.</t>
-  </si>
-  <si>
-    <t>Ändern Sie den Informations-Klingelton bei Bedarf.</t>
-  </si>
-  <si>
-    <t>customize_your_event_notification_sound</t>
-  </si>
-  <si>
-    <t>Customize your event notification sound.</t>
-  </si>
-  <si>
-    <t>Passen Sie Ihren Benachrichtigungston für Ereignisse an.</t>
-  </si>
-  <si>
-    <t>modify_the_alarm_sound_to_your_liking</t>
-  </si>
-  <si>
-    <t>Modify the alarm sound to your liking.</t>
-  </si>
-  <si>
-    <t>Ändern Sie den Alarmton nach Ihrem Geschmack.</t>
-  </si>
-  <si>
-    <t>personalize_your_chat_sound</t>
-  </si>
-  <si>
-    <t>Personalize your chat sound.</t>
-  </si>
-  <si>
-    <t>Personalisieren Sie Ihren Chat-Ton.</t>
-  </si>
-  <si>
-    <t>notification_sound</t>
-  </si>
-  <si>
-    <t>Notification Sound</t>
-  </si>
-  <si>
-    <t>Benachrichtigungston</t>
-  </si>
-  <si>
-    <t>mute_alarm</t>
-  </si>
-  <si>
-    <t>Mute Alarm</t>
-  </si>
-  <si>
-    <t>Alarm stummschalten</t>
-  </si>
-  <si>
-    <t>allows_users_to_modify_their_personal_data</t>
-  </si>
-  <si>
-    <t>overrides_silent_mode_to_play_a_loud_alarm</t>
-  </si>
-  <si>
-    <t>Overrides silent mode to play a loud alarm.</t>
-  </si>
-  <si>
-    <t>Hebt den Lautlos-Modus auf, um einen lauten Alarm abzuspielen.</t>
-  </si>
-  <si>
-    <t>modify_do_not_disturb_to_allow_important_alerts</t>
-  </si>
-  <si>
-    <t>Modify Do Not Disturb to allow important alerts.</t>
-  </si>
-  <si>
-    <t>Ändern Sie den Nicht stören-Modus, um wichtige Benachrichtigungen zuzulassen.</t>
-  </si>
-  <si>
-    <t>enter_your_full_name</t>
-  </si>
-  <si>
-    <t>Enter your full name</t>
-  </si>
-  <si>
-    <t>Geben Sie Ihren vollständigen Namen ein</t>
-  </si>
-  <si>
-    <t>contact_email</t>
-  </si>
-  <si>
-    <t>Mail-ID</t>
-  </si>
-  <si>
-    <t>Mail-I</t>
-  </si>
-  <si>
-    <t>enter_valid_mail_address</t>
-  </si>
-  <si>
-    <t>Enter valid mail address</t>
-  </si>
-  <si>
-    <t>Geben Sie eine gültige E-Mail-Adresse ein</t>
-  </si>
-  <si>
-    <t>contact_phone</t>
-  </si>
-  <si>
-    <t>enter_mobile_number</t>
-  </si>
-  <si>
-    <t>Enter mobile number</t>
-  </si>
-  <si>
-    <t>Geben Sie Ihre Handynummer ein</t>
-  </si>
-  <si>
-    <t>write_your_message</t>
-  </si>
-  <si>
-    <t>Write your message</t>
-  </si>
-  <si>
-    <t>Schreiben Sie Ihre Nachricht</t>
-  </si>
-  <si>
-    <t>send_query</t>
-  </si>
-  <si>
-    <t>Send query</t>
-  </si>
-  <si>
-    <t>Anfrage senden</t>
-  </si>
-  <si>
-    <t>support_log_in_below_attached_file</t>
-  </si>
-  <si>
-    <t>Support log in below attached file</t>
-  </si>
-  <si>
-    <t>Support-Protokoll in der unten angehängten Datei</t>
-  </si>
-  <si>
-    <t>device_service_recommendation_test_note_one_many_use_without_test</t>
-  </si>
-  <si>
-    <t>A visual and functional test must be performed after each use.</t>
-  </si>
-  <si>
-    <t>Nach jedem Gebrauch muss eine Sicht- und Funktionsprüfung durchgeführt werden.</t>
-  </si>
-  <si>
-    <t>Se debe realizar una prueba visual y funcional después de cada uso.</t>
-  </si>
-  <si>
-    <t>Un test visuel et fonctionnel doit être effectué après chaque utilisation.</t>
-  </si>
-  <si>
-    <t>Po vsaki uporabi je treba opraviti vizualni in funkcionalni test.</t>
-  </si>
-  <si>
-    <t>使用のたびに外観と機能のテストを行う必要があります。</t>
-  </si>
-  <si>
-    <t>device_service_recommendation_note_two_service_date_expired</t>
-  </si>
-  <si>
-    <t>The service is overdue, please contact your service partner!</t>
-  </si>
-  <si>
-    <t>Die Wartung ist überfällig, bitte kontaktieren Sie Ihren Servicepartner!</t>
-  </si>
-  <si>
-    <t>El mantenimiento está vencido, ¡por favor contacte a su proveedor de servicio!</t>
-  </si>
-  <si>
-    <t>Le service est en retard, veuillez contacter votre partenaire de service !</t>
-  </si>
-  <si>
-    <t>Servis je zapadel, prosimo kontaktirajte svojega servisnega partnerja!</t>
-  </si>
-  <si>
-    <t>サービスの期限が過ぎています。サービスパートナーに連絡してください。</t>
-  </si>
-  <si>
-    <t>device_service_recommendation_note_three_service_date_expired_more_than_365_days</t>
-  </si>
-  <si>
-    <t>The service is long overdue, please contact your service partner immediately!</t>
-  </si>
-  <si>
-    <t>Die Wartung ist stark überfällig, bitte kontaktieren Sie umgehend Ihren Servicepartner!</t>
-  </si>
-  <si>
-    <t>El mantenimiento está muy atrasado, ¡por favor contacte de inmediato a su proveedor de servicio!</t>
-  </si>
-  <si>
-    <t>Le service est très en retard, veuillez contacter immédiatement votre partenaire de service !</t>
-  </si>
-  <si>
-    <t>Servis je močno zapadel, prosimo, nemudoma kontaktirajte svojega servisnega partnerja!</t>
-  </si>
-  <si>
-    <t>サービスの期限が大幅に過ぎています。すぐにサービスパートナーに連絡してください。</t>
-  </si>
-  <si>
-    <t>device_service_recommendation_note_four_yellow_flag_repeat</t>
-  </si>
-  <si>
-    <t>The latest self-test shows some irregularities, repeat it or contact your service partner.</t>
-  </si>
-  <si>
-    <t>Der letzte Selbsttest zeigt einige Unregelmäßigkeiten, wiederholen Sie ihn oder kontaktieren Sie Ihren Servicepartner.</t>
-  </si>
-  <si>
-    <t>La última autoevaluación muestra algunas irregularidades, repítala o contacte a su socio de servicio.</t>
-  </si>
-  <si>
-    <t>Le dernier autotest présente certaines irrégularités, répétez-le ou contactez votre partenaire de service.</t>
-  </si>
-  <si>
-    <t>Zadnji samopreizkus je pokazal nepravilnosti. Ponovite ga ali se obrnite na svojega servisnega partnerja.</t>
-  </si>
-  <si>
-    <t>最新のセルフテストでいくつかの異常が検出されました。再実行するか、サービスパートナーに連絡してください。</t>
-  </si>
-  <si>
-    <t>device_service_recommendation_note_five_last_result_red_flag</t>
-  </si>
-  <si>
-    <t>The latest self-test shows an important problem. Please repeat the test or contact your service partner.</t>
-  </si>
-  <si>
-    <t>Der letzte Selbsttest zeigt ein wichtiges Problem. Bitte wiederholen Sie den Test oder kontaktieren Sie Ihren Servicepartner.</t>
-  </si>
-  <si>
-    <t>La última autoprueba muestra un problema importante. Por favor, repita la prueba o contacte a su proveedor de servicio.</t>
-  </si>
-  <si>
-    <t>Le dernier autotest révèle un problème important. Veuillez répéter le test ou contacter votre partenaire de service.</t>
-  </si>
-  <si>
-    <t>Zadnji samopreizkus je pokazal pomembno težavo. Ponovite test ali se obrnite na svojega servisnega partnerja.</t>
-  </si>
-  <si>
-    <t>最新のセルフテストで重大な問題が確認されました。テストを再実行するか、サービスパートナーに連絡してください。</t>
+    <t>Web-Service Dashboard Grid</t>
+  </si>
+  <si>
+    <t>Dashboard List</t>
+  </si>
+  <si>
+    <t>service_recommendation_device_not_found_message</t>
+  </si>
+  <si>
+    <t>Service Recommendation device details not found.</t>
+  </si>
+  <si>
+    <t>Gerätedetails zur Service‑Empfehlung nicht gefunden.</t>
+  </si>
+  <si>
+    <t>Detalles del dispositivo de recomendación de servicio no encontrados.</t>
+  </si>
+  <si>
+    <t>Détails de l'appareil de recommandation de service introuvables.</t>
+  </si>
+  <si>
+    <t>Podrobnosti o priporočenem servisnem napravah niso najdene.</t>
+  </si>
+  <si>
+    <t>サービス推奨デバイスの詳細が見つかりません。</t>
+  </si>
+  <si>
+    <t>service_dashboard_setting_record_not_found_message</t>
+  </si>
+  <si>
+    <t>Service Dashboard setting record not found.</t>
+  </si>
+  <si>
+    <t>Datensatz für Service‑Dashboard‑Einstellung nicht gefunden.</t>
+  </si>
+  <si>
+    <t>Registro de configuración del panel de servicio no encontrado.</t>
+  </si>
+  <si>
+    <t>Enregistrement des réglages du tableau de bord de service introuvable.</t>
+  </si>
+  <si>
+    <t>Zaznamka nastavitev nadzorne plošče storitev ni najdena.</t>
+  </si>
+  <si>
+    <t>サービスダッシュボード設定のレコードが見つかりません。</t>
+  </si>
+  <si>
+    <t>service_dashboard_setting_record_found_success_message</t>
+  </si>
+  <si>
+    <t>Service Dashboard setting record found successfully.</t>
+  </si>
+  <si>
+    <t>Datensatz der Service‑Dashboard‑Einstellung erfolgreich gefunden.</t>
+  </si>
+  <si>
+    <t>Registro de configuración del panel de servicio encontrado con éxito.</t>
+  </si>
+  <si>
+    <t>Réglage du tableau de bord de service trouvé avec succès.</t>
+  </si>
+  <si>
+    <t>Zapis nastavitev nadzorne plošče storitev uspešno najden.</t>
+  </si>
+  <si>
+    <t>サービスダッシュボード設定のレコードが正常に見つかりました。</t>
+  </si>
+  <si>
+    <t>service_dashboard_setting_id_required</t>
+  </si>
+  <si>
+    <t>Service dashboard setting ID is required.</t>
+  </si>
+  <si>
+    <t>ID der Service‑Dashboard‑Einstellung ist erforderlich.</t>
+  </si>
+  <si>
+    <t>Se requiere la identificación de la configuración del panel de servicio.</t>
+  </si>
+  <si>
+    <t>L'ID des paramètres du tableau de bord de service est requis.</t>
+  </si>
+  <si>
+    <t>ID nastavitev nadzorne plošče storitev je obvezna.</t>
+  </si>
+  <si>
+    <t>サービスダッシュボード設定のIDが必要です。</t>
+  </si>
+  <si>
+    <t>service_dashboard_setting_record_updated_success_message</t>
+  </si>
+  <si>
+    <t>Service Dashboard settings updated successfully.</t>
+  </si>
+  <si>
+    <t>Service‑Dashboard‑Einstellungen erfolgreich aktualisiert.</t>
+  </si>
+  <si>
+    <t>Ajustes del panel de servicio actualizados correctamente.</t>
+  </si>
+  <si>
+    <t>Paramètres du tableau de bord de service mis à jour avec succès.</t>
+  </si>
+  <si>
+    <t>Nastavitve nadzorne plošče storitev so bile uspešno posodobljene.</t>
+  </si>
+  <si>
+    <t>サービスダッシュボード設定が正常に更新されました。</t>
+  </si>
+  <si>
+    <t>service_dashboard_setting_not_updated_message</t>
+  </si>
+  <si>
+    <t>Service Dashboard setting was not updated.</t>
+  </si>
+  <si>
+    <t>Service‑Dashboard‑Einstellung wurde nicht aktualisiert.</t>
+  </si>
+  <si>
+    <t>La configuración del panel de servicio no se actualizó.</t>
+  </si>
+  <si>
+    <t>La configuration du tableau de bord de service n'a pas été mise à jour.</t>
+  </si>
+  <si>
+    <t>Nastavitev nadzorne plošče storitev ni bila posodobljena.</t>
+  </si>
+  <si>
+    <t>サービスダッシュボード設定は更新されませんでした。</t>
+  </si>
+  <si>
+    <t>filter_dropdown_options_found_success_message</t>
+  </si>
+  <si>
+    <t>Filter dropdown options found successfully.</t>
+  </si>
+  <si>
+    <t>Dropdown‑Filteroptionen erfolgreich gefunden.</t>
+  </si>
+  <si>
+    <t>Opciones de filtro desplegable encontradas con éxito.</t>
+  </si>
+  <si>
+    <t>Options de filtre déroulant trouvées avec succès.</t>
+  </si>
+  <si>
+    <t>Možnosti spustnega filtra so bile uspešno najdene.</t>
+  </si>
+  <si>
+    <t>フィルターのドロップダウンオプションが正常に見つかりました。</t>
+  </si>
+  <si>
+    <t>custom_filter_name_is_required_message</t>
+  </si>
+  <si>
+    <t>Custom filter name is required.</t>
+  </si>
+  <si>
+    <t>Name des benutzerdefinierten Filters ist erforderlich.</t>
+  </si>
+  <si>
+    <t>Se requiere el nombre del filtro personalizado.</t>
+  </si>
+  <si>
+    <t>Le nom du filtre personnalisé est requis.</t>
+  </si>
+  <si>
+    <t>Ime po meri filtra je zahtevano.</t>
+  </si>
+  <si>
+    <t>カスタムフィルター名が必要です。</t>
+  </si>
+  <si>
+    <t>custom_filter_name_is_already_exist</t>
+  </si>
+  <si>
+    <t>This filter name already exists. Please use a different one.</t>
+  </si>
+  <si>
+    <t>Dieser Filtername existiert bereits. Bitte verwenden Sie einen anderen.</t>
+  </si>
+  <si>
+    <t>Este nombre de filtro ya existe. Por favor elige otro.</t>
+  </si>
+  <si>
+    <t>Ce nom de filtre existe déjà. Veuillez en choisir un autre.</t>
+  </si>
+  <si>
+    <t>To ime filtra že obstaja. Prosimo, uporabite drugo ime.</t>
+  </si>
+  <si>
+    <t>このフィルター名はすでに存在します。別の名前を使用してください。</t>
+  </si>
+  <si>
+    <t>custom_filter_record_save_success_msg</t>
+  </si>
+  <si>
+    <t>Custom filter saved successfully.</t>
+  </si>
+  <si>
+    <t>Benutzerdefinierter Filter erfolgreich gespeichert.</t>
+  </si>
+  <si>
+    <t>Filtro personalizado guardado con éxito.</t>
+  </si>
+  <si>
+    <t>Filtre personnalisé enregistré avec succès.</t>
+  </si>
+  <si>
+    <t>Po meri filter je bil uspešno shranjen.</t>
+  </si>
+  <si>
+    <t>カスタムフィルターが正常に保存されました。</t>
+  </si>
+  <si>
+    <t>custom_filter_record_fetched_success_msg</t>
+  </si>
+  <si>
+    <t>Custom filters fetched successfully.</t>
+  </si>
+  <si>
+    <t>Benutzerdefinierte Filter erfolgreich abgerufen.</t>
+  </si>
+  <si>
+    <t>Filtros personalizados obtenidos con éxito.</t>
+  </si>
+  <si>
+    <t>Filtres personnalisés récupérés avec succès.</t>
+  </si>
+  <si>
+    <t>Po meri filtri so bili uspešno pridobljeni.</t>
+  </si>
+  <si>
+    <t>カスタムフィルターが正常に取得されました。</t>
+  </si>
+  <si>
+    <t>custom_filter_delete_failed</t>
+  </si>
+  <si>
+    <t>Failed to delete custom filter.</t>
+  </si>
+  <si>
+    <t>Benutzerdefinierter Filter konnte nicht gelöscht werden.</t>
+  </si>
+  <si>
+    <t>No se pudo eliminar el filtro personalizado.</t>
+  </si>
+  <si>
+    <t>Échec de la suppression du filtre personnalisé.</t>
+  </si>
+  <si>
+    <t>Brisanje po meri filtra ni uspelo.</t>
+  </si>
+  <si>
+    <t>カスタムフィルターの削除に失敗しました。</t>
+  </si>
+  <si>
+    <t>custom_filter_id_required</t>
+  </si>
+  <si>
+    <t>No custom filter found.</t>
+  </si>
+  <si>
+    <t>Kein benutzerdefinierter Filter gefunden.</t>
+  </si>
+  <si>
+    <t>No se encontró ningún filtro personalizado.</t>
+  </si>
+  <si>
+    <t>Aucun filtre personnalisé trouvé.</t>
+  </si>
+  <si>
+    <t>Ni bilo najdenih filtrov po meri.</t>
+  </si>
+  <si>
+    <t>カスタムフィルターが見つかりません。</t>
+  </si>
+  <si>
+    <t>filter_dropdown_options_device_record_not_found</t>
+  </si>
+  <si>
+    <t>No devices assigned to user.</t>
+  </si>
+  <si>
+    <t>Keine Geräte dem Benutzer zugewiesen.</t>
+  </si>
+  <si>
+    <t>No hay dispositivos asignados al usuario.</t>
+  </si>
+  <si>
+    <t>Aucun appareil attribué à l'utilisateur.</t>
+  </si>
+  <si>
+    <t>Uporabniku ni dodeljenih naprav.</t>
+  </si>
+  <si>
+    <t>ユーザーに割り当てられたデバイスがありません。</t>
+  </si>
+  <si>
+    <t>filter_dropdown_options_fetch_success</t>
+  </si>
+  <si>
+    <t>Filter dropdown options fetched successfully.</t>
+  </si>
+  <si>
+    <t>Dropdown‑Filteroptionen erfolgreich abgerufen.</t>
+  </si>
+  <si>
+    <t>Opciones de filtro desplegable obtenidas con éxito.</t>
+  </si>
+  <si>
+    <t>Options de filtre déroulant récupérées avec succès.</t>
+  </si>
+  <si>
+    <t>Možnosti spustnega filtra so bile uspešno pridobljene.</t>
+  </si>
+  <si>
+    <t>フィルターのドロップダウンオプションが正常に取得されました。</t>
+  </si>
+  <si>
+    <t>check_box_select_device_Ids_missing</t>
+  </si>
+  <si>
+    <t>Missing required fields</t>
+  </si>
+  <si>
+    <t>Fehlende erforderliche Felder.</t>
+  </si>
+  <si>
+    <t>Faltan campos obligatorios.</t>
+  </si>
+  <si>
+    <t>Champs obligatoires manquants.</t>
+  </si>
+  <si>
+    <t>Manjkajo zahtevana polja.</t>
+  </si>
+  <si>
+    <t>必須フィールドが不足しています。</t>
+  </si>
+  <si>
+    <t>check_box_select_device_ids_save_success_message</t>
+  </si>
+  <si>
+    <t>Rescue devices saved successfully.</t>
+  </si>
+  <si>
+    <t>Rettungsgeräte erfolgreich gespeichert.</t>
+  </si>
+  <si>
+    <t>Dispositivos de rescate guardados con éxito.</t>
+  </si>
+  <si>
+    <t>Appareils de sauvetage enregistrés avec succès.</t>
+  </si>
+  <si>
+    <t>Reševalne naprave uspešno shranjene.</t>
+  </si>
+  <si>
+    <t>救助装置が正常に保存されました。</t>
+  </si>
+  <si>
+    <t>Rescue device id is required.</t>
+  </si>
+  <si>
+    <t>Geräte‑ID ist erforderlich.</t>
+  </si>
+  <si>
+    <t>Se requiere el ID del dispositivo de rescate.</t>
+  </si>
+  <si>
+    <t>L'ID de l'appareil de sauvetage est requis.</t>
+  </si>
+  <si>
+    <t>ID reševalne naprave je zahtevan.</t>
+  </si>
+  <si>
+    <t>救助装置のIDが必要です。</t>
+  </si>
+  <si>
+    <t>check_box_select_device_records_not_found</t>
+  </si>
+  <si>
+    <t>Service inspection tools record not found.</t>
+  </si>
+  <si>
+    <t>Datensatz für Service‑Inspektionstools nicht gefunden.</t>
+  </si>
+  <si>
+    <t>Registro de herramientas de inspección de servicio no encontrado.</t>
+  </si>
+  <si>
+    <t>Enregistrement des outils d'inspection de service introuvable.</t>
+  </si>
+  <si>
+    <t>Zapis orodja za pregled storitve ni najden.</t>
+  </si>
+  <si>
+    <t>サービス検査ツールの記録が見つかりません。</t>
+  </si>
+  <si>
+    <t>check_box_select_device_ids_remove_success_message</t>
+  </si>
+  <si>
+    <t>Service inspection tools removed successfully.</t>
+  </si>
+  <si>
+    <t>Service‑Inspektionstools erfolgreich entfernt.</t>
+  </si>
+  <si>
+    <t>Herramientas de inspección de servicio eliminadas con éxito.</t>
+  </si>
+  <si>
+    <t>Outils d'inspection de service supprimés avec succès.</t>
+  </si>
+  <si>
+    <t>Orodja za pregled storitve uspešno odstranjena.</t>
+  </si>
+  <si>
+    <t>サービス検査ツールが正常に削除されました。</t>
+  </si>
+  <si>
+    <t>notification_settings_saved_success_message</t>
+  </si>
+  <si>
+    <t>Notification settings saved successfully.</t>
+  </si>
+  <si>
+    <t>Benachrichtigungseinstellungen erfolgreich gespeichert.</t>
+  </si>
+  <si>
+    <t>Configuración de notificaciones guardada con éxito.</t>
+  </si>
+  <si>
+    <t>Paramètres de notification enregistrés avec succès.</t>
+  </si>
+  <si>
+    <t>Nastavitve obvestil uspešno shranjene.</t>
+  </si>
+  <si>
+    <t>通知設定が正常に保存されました。</t>
+  </si>
+  <si>
+    <t>notification_setting_userID_email_requird</t>
+  </si>
+  <si>
+    <t>User ID and either emails or update_email is required.</t>
+  </si>
+  <si>
+    <t>Benutzer‑ID sowie E‑Mail oder update_email sind erforderlich.</t>
+  </si>
+  <si>
+    <t>Se requiere ID de usuario y correo electrónico o update_email.</t>
+  </si>
+  <si>
+    <t>L'ID d'utilisateur et e‑mail ou update_email sont requis.</t>
+  </si>
+  <si>
+    <t>ID uporabnika in e‑pošta ali update_email je zahtevana.</t>
+  </si>
+  <si>
+    <t>ユーザーIDとメールまたはupdate_emailが必要です。</t>
+  </si>
+  <si>
+    <t>notification_setting_not_found_updated</t>
+  </si>
+  <si>
+    <t>Notification setting not found for user.</t>
+  </si>
+  <si>
+    <t>Benachrichtigungseinstellung für Benutzer nicht gefunden.</t>
+  </si>
+  <si>
+    <t>Configuración de notificaciones no encontrada para el usuario.</t>
+  </si>
+  <si>
+    <t>Paramètre de notification introuvable pour l'utilisateur.</t>
+  </si>
+  <si>
+    <t>Nastavitev obvestila za uporabnika ni najdena.</t>
+  </si>
+  <si>
+    <t>ユーザーの通知設定が見つかりません。</t>
+  </si>
+  <si>
+    <t>notification_secondary_emails_updated</t>
+  </si>
+  <si>
+    <t>Secondary emails updated successfully.</t>
+  </si>
+  <si>
+    <t>Sekundäre E‑Mails erfolgreich aktualisiert.</t>
+  </si>
+  <si>
+    <t>Correos electrónicos secundarios actualizados con éxito.</t>
+  </si>
+  <si>
+    <t>E‑mails secondaires mises à jour avec succès.</t>
+  </si>
+  <si>
+    <t>Sekundarni e‑poštni naslovi so bili uspešno posodobljeni.</t>
+  </si>
+  <si>
+    <t>セカンダリーメールが正常に更新されました。</t>
+  </si>
+  <si>
+    <t>notification_setting_user_id_required</t>
+  </si>
+  <si>
+    <t>User ID and email are required.</t>
+  </si>
+  <si>
+    <t>Benutzer‑ID und E‑Mail sind erforderlich.</t>
+  </si>
+  <si>
+    <t>Se requieren ID de usuario y correo electrónico.</t>
+  </si>
+  <si>
+    <t>ID utilisateur et e‑mail requis.</t>
+  </si>
+  <si>
+    <t>ID uporabnika in e‑pošta sta zahtevana.</t>
+  </si>
+  <si>
+    <t>ユーザーIDとメールが必要です。</t>
+  </si>
+  <si>
+    <t>notification_secondary_email_not_found</t>
+  </si>
+  <si>
+    <t>Secondary emails not found for user.</t>
+  </si>
+  <si>
+    <t>Sekundäre E‑Mails für Benutzer nicht gefunden.</t>
+  </si>
+  <si>
+    <t>Correos secundarios no encontrados para el usuario.</t>
+  </si>
+  <si>
+    <t>E‑mails secondaires introuvables pour l'utilisateur.</t>
+  </si>
+  <si>
+    <t>Sekundarna e‑poštna sporočila za uporabnika niso najdena.</t>
+  </si>
+  <si>
+    <t>ユーザーのセカンダリーメールが見つかりません。</t>
+  </si>
+  <si>
+    <t>notification_secondary_email_deleted</t>
+  </si>
+  <si>
+    <t>Specified secondary email deleted successfully.</t>
+  </si>
+  <si>
+    <t>Angegebene sekundäre E‑Mail erfolgreich gelöscht.</t>
+  </si>
+  <si>
+    <t>Correo electrónico secundario eliminado con éxito.</t>
+  </si>
+  <si>
+    <t>E‑mail secondaire spécifié supprimé avec succès.</t>
+  </si>
+  <si>
+    <t>Določena sekundarna e‑pošta je bila uspešno izbrisana.</t>
+  </si>
+  <si>
+    <t>指定されたセカンダリーメールが正常に削除されました。</t>
+  </si>
+  <si>
+    <t>notification_settings_found_success_message</t>
+  </si>
+  <si>
+    <t>Notification settings found successfully.</t>
+  </si>
+  <si>
+    <t>Benachrichtigungseinstellungen erfolgreich gefunden.</t>
+  </si>
+  <si>
+    <t>Configuración de notificaciones encontrada con éxito.</t>
+  </si>
+  <si>
+    <t>Paramètres de notification trouvés avec succès.</t>
+  </si>
+  <si>
+    <t>Nastavitve obvestil uspešno najdene.</t>
+  </si>
+  <si>
+    <t>通知設定が正常に見つかりました。</t>
+  </si>
+  <si>
+    <t>days_expired_red</t>
+  </si>
+  <si>
+    <t>Service date threshold after expiry before red</t>
+  </si>
+  <si>
+    <t>Schwellenwert der Servicetage nach Ablauf vor Rot</t>
+  </si>
+  <si>
+    <t>Fechas de servicio vencidas (alerta roja).</t>
+  </si>
+  <si>
+    <t>Dates de service expirées (alerte rouge).</t>
+  </si>
+  <si>
+    <t>Servisni datumi so potekli (rdeče opozorilo).</t>
+  </si>
+  <si>
+    <t>サービス日が期限切れです（赤の警告）</t>
+  </si>
+  <si>
+    <t>max_tool_usage_before_test</t>
+  </si>
+  <si>
+    <t>Max tool usage before self-test</t>
+  </si>
+  <si>
+    <t>Maximale Werkzeugverwendung vor dem Selbsttest</t>
+  </si>
+  <si>
+    <t>Uso máximo de la herramienta antes de la autoprueba</t>
+  </si>
+  <si>
+    <t>Utilisation maximale de l'outil avant l'auto-test</t>
+  </si>
+  <si>
+    <t>Največja uporaba orodja pred samopreizkusom</t>
+  </si>
+  <si>
+    <t>セルフテスト前の最大ツール使用回数</t>
+  </si>
+  <si>
+    <t>yellow_flag_threshold</t>
+  </si>
+  <si>
+    <t>Yellow flag max threshold tool usage before self-test</t>
+  </si>
+  <si>
+    <t>Gelbe Warnschwelle der Werkzeugverwendung vor dem Selbsttest</t>
+  </si>
+  <si>
+    <t>Umbral de advertencia del uso de herramienta antes del autodiagnóstico</t>
+  </si>
+  <si>
+    <t>Seuil d'alerte jaune d'utilisation de l'outil avant l'auto-test</t>
+  </si>
+  <si>
+    <t>Rumeni mejni prag uporabe orodja pred samopreizkusom</t>
+  </si>
+  <si>
+    <t>セルフテスト前の警告しきい値となるツール使用回数</t>
+  </si>
+  <si>
+    <t>last_online_date_threshold</t>
+  </si>
+  <si>
+    <t>Last online date threshold</t>
+  </si>
+  <si>
+    <t>Schwellenwert für das letzte Online-Datum</t>
+  </si>
+  <si>
+    <t>Umbral de la última fecha en línea</t>
+  </si>
+  <si>
+    <t>Seuil de la dernière date de connexion</t>
+  </si>
+  <si>
+    <t>Prag zadnjega spletnega datuma</t>
+  </si>
+  <si>
+    <t>最終オンライン日時のしきい値</t>
+  </si>
+  <si>
+    <t>operation_hours_threshold</t>
+  </si>
+  <si>
+    <t>Operation hours threshold</t>
+  </si>
+  <si>
+    <t>Schwellenwert der Betriebsstunden</t>
+  </si>
+  <si>
+    <t>Umbral de horas de funcionamiento</t>
+  </si>
+  <si>
+    <t>Seuil des heures de fonctionnement</t>
+  </si>
+  <si>
+    <t>Prag obratovalnih ur</t>
+  </si>
+  <si>
+    <t>稼働時間のしきい値</t>
   </si>
 </sst>
 </file>
@@ -911,7 +1679,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -924,30 +1692,19 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment readingOrder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment readingOrder="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1245,7 +2002,7 @@
   <dimension ref="A1:E93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E75"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1282,13 +2039,13 @@
         <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="D2" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="E2" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1299,13 +2056,13 @@
         <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="D3" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="E3" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1316,13 +2073,13 @@
         <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="D4" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="E4" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1333,13 +2090,13 @@
         <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="D5" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="E5" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1350,13 +2107,13 @@
         <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="D6" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="E6" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1367,13 +2124,13 @@
         <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="D7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="E7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1384,13 +2141,13 @@
         <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="D8" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="E8" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1401,13 +2158,13 @@
         <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="D9" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="E9" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1418,13 +2175,13 @@
         <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="D10" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="E10" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1435,13 +2192,13 @@
         <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="D11" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="E11" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1452,13 +2209,13 @@
         <v>14</v>
       </c>
       <c r="C12" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="D12" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="E12" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1469,13 +2226,13 @@
         <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="D13" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="E13" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1486,13 +2243,13 @@
         <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="D14" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="E14" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1503,13 +2260,13 @@
         <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>15</v>
+        <v>113</v>
       </c>
       <c r="D15" t="s">
-        <v>15</v>
+        <v>113</v>
       </c>
       <c r="E15" t="s">
-        <v>16</v>
+        <v>114</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1520,13 +2277,13 @@
         <v>14</v>
       </c>
       <c r="C16" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="D16" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="E16" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1537,13 +2294,13 @@
         <v>14</v>
       </c>
       <c r="C17" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="D17" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="E17" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1554,13 +2311,13 @@
         <v>14</v>
       </c>
       <c r="C18" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="D18" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="E18" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1571,13 +2328,13 @@
         <v>14</v>
       </c>
       <c r="C19" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="D19" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="E19" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1588,13 +2345,13 @@
         <v>14</v>
       </c>
       <c r="C20" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="D20" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="E20" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1605,13 +2362,13 @@
         <v>14</v>
       </c>
       <c r="C21" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="D21" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="E21" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1622,13 +2379,13 @@
         <v>14</v>
       </c>
       <c r="C22" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="D22" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="E22" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1639,13 +2396,13 @@
         <v>14</v>
       </c>
       <c r="C23" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="D23" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="E23" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1656,13 +2413,13 @@
         <v>14</v>
       </c>
       <c r="C24" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="D24" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="E24" t="s">
-        <v>17</v>
+        <v>140</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1673,13 +2430,13 @@
         <v>14</v>
       </c>
       <c r="C25" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="D25" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="E25" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1690,13 +2447,13 @@
         <v>14</v>
       </c>
       <c r="C26" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="D26" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="E26" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1707,13 +2464,13 @@
         <v>14</v>
       </c>
       <c r="C27" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="D27" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="E27" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1724,13 +2481,13 @@
         <v>14</v>
       </c>
       <c r="C28" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="D28" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="E28" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1741,13 +2498,13 @@
         <v>14</v>
       </c>
       <c r="C29" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="D29" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="E29" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1758,13 +2515,13 @@
         <v>14</v>
       </c>
       <c r="C30" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="D30" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="E30" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1775,13 +2532,13 @@
         <v>14</v>
       </c>
       <c r="C31" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="D31" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="E31" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1792,13 +2549,13 @@
         <v>14</v>
       </c>
       <c r="C32" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="D32" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="E32" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1809,13 +2566,13 @@
         <v>14</v>
       </c>
       <c r="C33" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="D33" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="E33" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1826,13 +2583,13 @@
         <v>14</v>
       </c>
       <c r="C34" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="D34" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="E34" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1843,13 +2600,13 @@
         <v>14</v>
       </c>
       <c r="C35" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="D35" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="E35" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1860,13 +2617,13 @@
         <v>14</v>
       </c>
       <c r="C36" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="D36" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="E36" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1877,13 +2634,13 @@
         <v>14</v>
       </c>
       <c r="C37" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="D37" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="E37" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1894,13 +2651,13 @@
         <v>14</v>
       </c>
       <c r="C38" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="D38" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="E38" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1911,13 +2668,13 @@
         <v>14</v>
       </c>
       <c r="C39" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="D39" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="E39" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1928,13 +2685,13 @@
         <v>14</v>
       </c>
       <c r="C40" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="D40" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="E40" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1945,13 +2702,13 @@
         <v>14</v>
       </c>
       <c r="C41" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="D41" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="E41" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1962,13 +2719,13 @@
         <v>14</v>
       </c>
       <c r="C42" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="D42" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="E42" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1979,13 +2736,13 @@
         <v>14</v>
       </c>
       <c r="C43" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="D43" t="s">
-        <v>186</v>
+        <v>195</v>
       </c>
       <c r="E43" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1996,13 +2753,13 @@
         <v>14</v>
       </c>
       <c r="C44" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="D44" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="E44" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -2013,13 +2770,13 @@
         <v>14</v>
       </c>
       <c r="C45" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="D45" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="E45" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -2030,13 +2787,13 @@
         <v>14</v>
       </c>
       <c r="C46" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="D46" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="E46" t="s">
-        <v>196</v>
+        <v>205</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -2047,13 +2804,13 @@
         <v>14</v>
       </c>
       <c r="C47" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="D47" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="E47" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -2064,13 +2821,13 @@
         <v>14</v>
       </c>
       <c r="C48" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="D48" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="E48" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -2081,13 +2838,13 @@
         <v>14</v>
       </c>
       <c r="C49" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="D49" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="E49" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -2098,13 +2855,13 @@
         <v>14</v>
       </c>
       <c r="C50" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="D50" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="E50" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -2115,13 +2872,13 @@
         <v>14</v>
       </c>
       <c r="C51" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="D51" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="E51" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -2132,13 +2889,13 @@
         <v>14</v>
       </c>
       <c r="C52" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="D52" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="E52" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -2149,13 +2906,13 @@
         <v>14</v>
       </c>
       <c r="C53" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="D53" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="E53" t="s">
-        <v>215</v>
+        <v>224</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -2166,13 +2923,13 @@
         <v>14</v>
       </c>
       <c r="C54" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="D54" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="E54" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -2183,13 +2940,13 @@
         <v>14</v>
       </c>
       <c r="C55" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="D55" t="s">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="E55" t="s">
-        <v>219</v>
+        <v>228</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -2200,13 +2957,13 @@
         <v>14</v>
       </c>
       <c r="C56" t="s">
-        <v>220</v>
+        <v>229</v>
       </c>
       <c r="D56" t="s">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="E56" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -2217,13 +2974,13 @@
         <v>14</v>
       </c>
       <c r="C57" t="s">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="D57" t="s">
-        <v>224</v>
+        <v>233</v>
       </c>
       <c r="E57" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -2234,13 +2991,13 @@
         <v>14</v>
       </c>
       <c r="C58" t="s">
-        <v>226</v>
+        <v>235</v>
       </c>
       <c r="D58" t="s">
-        <v>227</v>
+        <v>236</v>
       </c>
       <c r="E58" t="s">
-        <v>228</v>
+        <v>237</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -2251,13 +3008,13 @@
         <v>14</v>
       </c>
       <c r="C59" t="s">
-        <v>19</v>
+        <v>238</v>
       </c>
       <c r="D59" t="s">
-        <v>20</v>
+        <v>239</v>
       </c>
       <c r="E59" t="s">
-        <v>21</v>
+        <v>240</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -2268,13 +3025,13 @@
         <v>14</v>
       </c>
       <c r="C60" t="s">
-        <v>22</v>
+        <v>241</v>
       </c>
       <c r="D60" t="s">
-        <v>23</v>
+        <v>242</v>
       </c>
       <c r="E60" t="s">
-        <v>24</v>
+        <v>243</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -2285,13 +3042,13 @@
         <v>14</v>
       </c>
       <c r="C61" t="s">
-        <v>25</v>
+        <v>244</v>
       </c>
       <c r="D61" t="s">
-        <v>26</v>
+        <v>245</v>
       </c>
       <c r="E61" t="s">
-        <v>27</v>
+        <v>246</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -2302,13 +3059,13 @@
         <v>14</v>
       </c>
       <c r="C62" t="s">
-        <v>28</v>
+        <v>247</v>
       </c>
       <c r="D62" t="s">
-        <v>29</v>
+        <v>248</v>
       </c>
       <c r="E62" t="s">
-        <v>30</v>
+        <v>249</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -2319,13 +3076,13 @@
         <v>14</v>
       </c>
       <c r="C63" t="s">
-        <v>31</v>
+        <v>250</v>
       </c>
       <c r="D63" t="s">
-        <v>32</v>
+        <v>251</v>
       </c>
       <c r="E63" t="s">
-        <v>33</v>
+        <v>252</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -2336,13 +3093,13 @@
         <v>14</v>
       </c>
       <c r="C64" t="s">
-        <v>34</v>
+        <v>253</v>
       </c>
       <c r="D64" t="s">
-        <v>35</v>
+        <v>254</v>
       </c>
       <c r="E64" t="s">
-        <v>36</v>
+        <v>255</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -2353,13 +3110,13 @@
         <v>14</v>
       </c>
       <c r="C65" t="s">
-        <v>37</v>
+        <v>256</v>
       </c>
       <c r="D65" t="s">
-        <v>38</v>
+        <v>257</v>
       </c>
       <c r="E65" t="s">
-        <v>39</v>
+        <v>258</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="15.75" customHeight="1">
@@ -2370,13 +3127,13 @@
         <v>14</v>
       </c>
       <c r="C66" t="s">
-        <v>40</v>
+        <v>259</v>
       </c>
       <c r="D66" t="s">
-        <v>41</v>
+        <v>260</v>
       </c>
       <c r="E66" t="s">
-        <v>42</v>
+        <v>261</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -2387,13 +3144,13 @@
         <v>14</v>
       </c>
       <c r="C67" t="s">
-        <v>43</v>
+        <v>262</v>
       </c>
       <c r="D67" t="s">
-        <v>44</v>
+        <v>263</v>
       </c>
       <c r="E67" t="s">
-        <v>45</v>
+        <v>264</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -2404,13 +3161,13 @@
         <v>14</v>
       </c>
       <c r="C68" t="s">
-        <v>46</v>
+        <v>265</v>
       </c>
       <c r="D68" t="s">
-        <v>47</v>
+        <v>266</v>
       </c>
       <c r="E68" t="s">
-        <v>48</v>
+        <v>267</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -2421,13 +3178,13 @@
         <v>14</v>
       </c>
       <c r="C69" t="s">
-        <v>49</v>
+        <v>268</v>
       </c>
       <c r="D69" t="s">
-        <v>50</v>
+        <v>269</v>
       </c>
       <c r="E69" t="s">
-        <v>51</v>
+        <v>270</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -2438,13 +3195,13 @@
         <v>14</v>
       </c>
       <c r="C70" t="s">
-        <v>52</v>
+        <v>271</v>
       </c>
       <c r="D70" t="s">
-        <v>53</v>
+        <v>272</v>
       </c>
       <c r="E70" t="s">
-        <v>54</v>
+        <v>273</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -2455,13 +3212,13 @@
         <v>14</v>
       </c>
       <c r="C71" t="s">
-        <v>55</v>
+        <v>274</v>
       </c>
       <c r="D71" t="s">
-        <v>56</v>
+        <v>275</v>
       </c>
       <c r="E71" t="s">
-        <v>57</v>
+        <v>276</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -2472,13 +3229,13 @@
         <v>14</v>
       </c>
       <c r="C72" t="s">
-        <v>58</v>
+        <v>277</v>
       </c>
       <c r="D72" t="s">
-        <v>59</v>
+        <v>278</v>
       </c>
       <c r="E72" t="s">
-        <v>60</v>
+        <v>279</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -2489,13 +3246,13 @@
         <v>14</v>
       </c>
       <c r="C73" t="s">
-        <v>61</v>
+        <v>280</v>
       </c>
       <c r="D73" t="s">
-        <v>62</v>
+        <v>281</v>
       </c>
       <c r="E73" t="s">
-        <v>63</v>
+        <v>282</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -2506,10 +3263,10 @@
         <v>14</v>
       </c>
       <c r="C74" t="s">
-        <v>64</v>
+        <v>283</v>
       </c>
       <c r="D74" t="s">
-        <v>65</v>
+        <v>284</v>
       </c>
       <c r="E74" t="s">
         <v>7</v>
@@ -2523,13 +3280,149 @@
         <v>14</v>
       </c>
       <c r="C75" t="s">
+        <v>285</v>
+      </c>
+      <c r="D75" t="s">
+        <v>286</v>
+      </c>
+      <c r="E75" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E77" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E78" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E79" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E80" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C81" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="D75" t="s">
+      <c r="D81" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="E75" t="s">
+      <c r="E81" s="3" t="s">
         <v>68</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E82" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -2597,17 +3490,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="18.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.28515625" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="77.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" style="7" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="7"/>
+    <col min="1" max="1" width="18.42578125" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.42578125" style="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="77.5703125" style="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" style="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.7109375" style="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.140625" style="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.42578125" style="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" style="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="112.5703125" style="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" s="4" customFormat="1" ht="15.75" customHeight="1">
@@ -2643,599 +3536,1362 @@
       </c>
     </row>
     <row r="2" spans="1:24">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="17" t="s">
-        <v>229</v>
-      </c>
-      <c r="E2" s="17" t="s">
-        <v>230</v>
-      </c>
-      <c r="F2" s="17" t="s">
-        <v>231</v>
-      </c>
-      <c r="G2" s="17" t="s">
-        <v>232</v>
-      </c>
-      <c r="H2" s="17" t="s">
-        <v>233</v>
-      </c>
-      <c r="I2" s="17" t="s">
-        <v>234</v>
-      </c>
-      <c r="J2" s="17" t="s">
-        <v>235</v>
-      </c>
-      <c r="K2"/>
-      <c r="L2"/>
-      <c r="M2"/>
-      <c r="N2"/>
-      <c r="O2"/>
-      <c r="P2"/>
-      <c r="Q2"/>
-      <c r="R2"/>
-      <c r="S2"/>
-      <c r="T2"/>
-      <c r="U2"/>
-      <c r="V2"/>
-      <c r="W2"/>
-      <c r="X2"/>
+      <c r="G2" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="11"/>
+      <c r="O2" s="11"/>
+      <c r="P2" s="11"/>
+      <c r="Q2" s="11"/>
+      <c r="R2" s="11"/>
+      <c r="S2" s="11"/>
+      <c r="T2" s="11"/>
+      <c r="U2" s="11"/>
+      <c r="V2" s="11"/>
+      <c r="W2" s="11"/>
+      <c r="X2" s="11"/>
     </row>
     <row r="3" spans="1:24">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="17" t="s">
-        <v>236</v>
-      </c>
-      <c r="E3" s="17" t="s">
-        <v>237</v>
-      </c>
-      <c r="F3" s="17" t="s">
-        <v>238</v>
-      </c>
-      <c r="G3" s="17" t="s">
-        <v>239</v>
-      </c>
-      <c r="H3" s="17" t="s">
-        <v>240</v>
-      </c>
-      <c r="I3" s="17" t="s">
-        <v>241</v>
-      </c>
-      <c r="J3" s="17" t="s">
-        <v>242</v>
-      </c>
-      <c r="K3"/>
-      <c r="L3"/>
-      <c r="M3"/>
-      <c r="N3"/>
-      <c r="O3"/>
-      <c r="P3"/>
-      <c r="Q3"/>
-      <c r="R3"/>
-      <c r="S3"/>
-      <c r="T3"/>
-      <c r="U3"/>
-      <c r="V3"/>
-      <c r="W3"/>
-      <c r="X3"/>
+      <c r="C3" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="11"/>
+      <c r="P3" s="11"/>
+      <c r="Q3" s="11"/>
+      <c r="R3" s="11"/>
+      <c r="S3" s="11"/>
+      <c r="T3" s="11"/>
+      <c r="U3" s="11"/>
+      <c r="V3" s="11"/>
+      <c r="W3" s="11"/>
+      <c r="X3" s="11"/>
     </row>
     <row r="4" spans="1:24">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="17" t="s">
-        <v>243</v>
-      </c>
-      <c r="E4" s="17" t="s">
-        <v>244</v>
-      </c>
-      <c r="F4" s="17" t="s">
-        <v>245</v>
-      </c>
-      <c r="G4" s="17" t="s">
-        <v>246</v>
-      </c>
-      <c r="H4" s="17" t="s">
-        <v>247</v>
-      </c>
-      <c r="I4" s="17" t="s">
-        <v>248</v>
-      </c>
-      <c r="J4" s="17" t="s">
-        <v>249</v>
-      </c>
-      <c r="K4"/>
-      <c r="L4"/>
-      <c r="M4"/>
-      <c r="N4"/>
-      <c r="O4"/>
-      <c r="P4"/>
-      <c r="Q4"/>
-      <c r="R4"/>
-      <c r="S4"/>
-      <c r="T4"/>
-      <c r="U4"/>
-      <c r="V4"/>
-      <c r="W4"/>
-      <c r="X4"/>
+      <c r="C4" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="J4" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="11"/>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="11"/>
+      <c r="R4" s="11"/>
+      <c r="S4" s="11"/>
+      <c r="T4" s="11"/>
+      <c r="U4" s="11"/>
+      <c r="V4" s="11"/>
+      <c r="W4" s="11"/>
+      <c r="X4" s="11"/>
     </row>
     <row r="5" spans="1:24">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="17" t="s">
-        <v>250</v>
-      </c>
-      <c r="E5" s="17" t="s">
-        <v>251</v>
-      </c>
-      <c r="F5" s="17" t="s">
-        <v>252</v>
-      </c>
-      <c r="G5" s="17" t="s">
-        <v>253</v>
-      </c>
-      <c r="H5" s="17" t="s">
-        <v>254</v>
-      </c>
-      <c r="I5" s="17" t="s">
-        <v>255</v>
-      </c>
-      <c r="J5" s="17" t="s">
-        <v>256</v>
-      </c>
-      <c r="K5"/>
-      <c r="L5"/>
-      <c r="M5"/>
-      <c r="N5"/>
-      <c r="O5"/>
-      <c r="P5"/>
-      <c r="Q5"/>
-      <c r="R5"/>
-      <c r="S5"/>
-      <c r="T5"/>
-      <c r="U5"/>
-      <c r="V5"/>
-      <c r="W5"/>
-      <c r="X5"/>
+      <c r="C5" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="J5" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="11"/>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="11"/>
+      <c r="R5" s="11"/>
+      <c r="S5" s="11"/>
+      <c r="T5" s="11"/>
+      <c r="U5" s="11"/>
+      <c r="V5" s="11"/>
+      <c r="W5" s="11"/>
+      <c r="X5" s="11"/>
     </row>
     <row r="6" spans="1:24">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="17" t="s">
-        <v>257</v>
-      </c>
-      <c r="E6" s="17" t="s">
-        <v>258</v>
-      </c>
-      <c r="F6" s="17" t="s">
-        <v>259</v>
-      </c>
-      <c r="G6" s="17" t="s">
-        <v>260</v>
-      </c>
-      <c r="H6" s="17" t="s">
-        <v>261</v>
-      </c>
-      <c r="I6" s="17" t="s">
-        <v>262</v>
-      </c>
-      <c r="J6" s="17" t="s">
-        <v>263</v>
-      </c>
-      <c r="K6"/>
-      <c r="L6"/>
-      <c r="M6"/>
-      <c r="N6"/>
-      <c r="O6"/>
-      <c r="P6"/>
-      <c r="Q6"/>
-      <c r="R6"/>
-      <c r="S6"/>
-      <c r="T6"/>
-      <c r="U6"/>
-      <c r="V6"/>
-      <c r="W6"/>
-      <c r="X6"/>
+      <c r="C6" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="J6" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="11"/>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="11"/>
+      <c r="R6" s="11"/>
+      <c r="S6" s="11"/>
+      <c r="T6" s="11"/>
+      <c r="U6" s="11"/>
+      <c r="V6" s="11"/>
+      <c r="W6" s="11"/>
+      <c r="X6" s="11"/>
     </row>
     <row r="7" spans="1:24">
-      <c r="A7" s="17"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="17"/>
-      <c r="K7"/>
-      <c r="L7"/>
-      <c r="M7"/>
-      <c r="N7"/>
-      <c r="O7"/>
-      <c r="P7"/>
-      <c r="Q7"/>
-      <c r="R7"/>
-      <c r="S7"/>
-      <c r="T7"/>
-      <c r="U7"/>
-      <c r="V7"/>
-      <c r="W7"/>
-      <c r="X7"/>
+      <c r="A7" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="11"/>
+      <c r="R7" s="11"/>
+      <c r="S7" s="11"/>
+      <c r="T7" s="11"/>
+      <c r="U7" s="11"/>
+      <c r="V7" s="11"/>
+      <c r="W7" s="11"/>
+      <c r="X7" s="11"/>
     </row>
     <row r="8" spans="1:24">
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="6"/>
+      <c r="A8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>303</v>
+      </c>
+      <c r="K8" s="13"/>
     </row>
     <row r="9" spans="1:24">
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="6"/>
+      <c r="A9" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>305</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>306</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="K9" s="13"/>
     </row>
     <row r="10" spans="1:24">
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="6"/>
+      <c r="A10" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>313</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="K10" s="13"/>
     </row>
     <row r="11" spans="1:24">
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="6"/>
+      <c r="A11" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>319</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>320</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>321</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>322</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>323</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>324</v>
+      </c>
+      <c r="K11" s="13"/>
     </row>
     <row r="12" spans="1:24">
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="6"/>
+      <c r="A12" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="J12" s="6" t="s">
+        <v>331</v>
+      </c>
+      <c r="K12" s="13"/>
     </row>
     <row r="13" spans="1:24">
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="6"/>
+      <c r="A13" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>335</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>336</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="J13" s="6" t="s">
+        <v>338</v>
+      </c>
+      <c r="K13" s="13"/>
     </row>
     <row r="14" spans="1:24">
-      <c r="K14" s="6"/>
+      <c r="A14" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>339</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>340</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>341</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>343</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="J14" s="6" t="s">
+        <v>345</v>
+      </c>
+      <c r="K14" s="13"/>
     </row>
     <row r="15" spans="1:24">
-      <c r="K15" s="6"/>
+      <c r="A15" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>346</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>347</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>349</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>351</v>
+      </c>
+      <c r="J15" s="6" t="s">
+        <v>352</v>
+      </c>
+      <c r="K15" s="13"/>
     </row>
     <row r="16" spans="1:24">
-      <c r="K16" s="6"/>
+      <c r="A16" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>353</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>354</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>355</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>356</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>357</v>
+      </c>
+      <c r="I16" s="6" t="s">
+        <v>358</v>
+      </c>
+      <c r="J16" s="6" t="s">
+        <v>359</v>
+      </c>
+      <c r="K16" s="13"/>
     </row>
     <row r="17" spans="1:11">
-      <c r="K17" s="6"/>
+      <c r="A17" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>360</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>361</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>362</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>363</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>364</v>
+      </c>
+      <c r="I17" s="6" t="s">
+        <v>365</v>
+      </c>
+      <c r="J17" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="K17" s="13"/>
     </row>
     <row r="18" spans="1:11">
-      <c r="K18" s="6"/>
+      <c r="A18" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>367</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>368</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>369</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>370</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>371</v>
+      </c>
+      <c r="I18" s="6" t="s">
+        <v>372</v>
+      </c>
+      <c r="J18" s="6" t="s">
+        <v>373</v>
+      </c>
+      <c r="K18" s="13"/>
     </row>
     <row r="19" spans="1:11">
-      <c r="A19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="6"/>
+      <c r="A19" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>374</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>375</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>376</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>377</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>378</v>
+      </c>
+      <c r="I19" s="6" t="s">
+        <v>379</v>
+      </c>
+      <c r="J19" s="6" t="s">
+        <v>380</v>
+      </c>
+      <c r="K19" s="13"/>
     </row>
     <row r="20" spans="1:11">
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="6"/>
+      <c r="A20" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>381</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>382</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>385</v>
+      </c>
+      <c r="I20" s="6" t="s">
+        <v>386</v>
+      </c>
+      <c r="J20" s="6" t="s">
+        <v>387</v>
+      </c>
+      <c r="K20" s="13"/>
     </row>
     <row r="21" spans="1:11">
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="6"/>
+      <c r="A21" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>388</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>389</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>390</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>391</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>392</v>
+      </c>
+      <c r="I21" s="6" t="s">
+        <v>393</v>
+      </c>
+      <c r="J21" s="6" t="s">
+        <v>394</v>
+      </c>
+      <c r="K21" s="13"/>
     </row>
     <row r="22" spans="1:11">
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="6"/>
+      <c r="A22" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>396</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>399</v>
+      </c>
+      <c r="I22" s="6" t="s">
+        <v>400</v>
+      </c>
+      <c r="J22" s="6" t="s">
+        <v>401</v>
+      </c>
+      <c r="K22" s="13"/>
     </row>
     <row r="23" spans="1:11">
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="8"/>
-      <c r="K23" s="6"/>
+      <c r="A23" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>402</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>403</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>404</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>405</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="I23" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="J23" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="K23" s="13"/>
     </row>
     <row r="24" spans="1:11">
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="8"/>
-      <c r="K24" s="6"/>
+      <c r="A24" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>402</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>409</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>410</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>412</v>
+      </c>
+      <c r="I24" s="6" t="s">
+        <v>413</v>
+      </c>
+      <c r="J24" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="K24" s="13"/>
     </row>
     <row r="25" spans="1:11">
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="8"/>
-      <c r="K25" s="6"/>
+      <c r="A25" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>415</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>416</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>417</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="I25" s="6" t="s">
+        <v>420</v>
+      </c>
+      <c r="J25" s="6" t="s">
+        <v>421</v>
+      </c>
+      <c r="K25" s="13"/>
     </row>
     <row r="26" spans="1:11">
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
-      <c r="I26" s="8"/>
-      <c r="J26" s="8"/>
-      <c r="K26" s="6"/>
+      <c r="A26" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>422</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>423</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>424</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>425</v>
+      </c>
+      <c r="H26" s="6" t="s">
+        <v>426</v>
+      </c>
+      <c r="I26" s="6" t="s">
+        <v>427</v>
+      </c>
+      <c r="J26" s="6" t="s">
+        <v>428</v>
+      </c>
+      <c r="K26" s="13"/>
     </row>
     <row r="27" spans="1:11">
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="8"/>
-      <c r="I27" s="8"/>
-      <c r="J27" s="8"/>
-      <c r="K27" s="6"/>
+      <c r="A27" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>429</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>430</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>431</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>432</v>
+      </c>
+      <c r="H27" s="6" t="s">
+        <v>433</v>
+      </c>
+      <c r="I27" s="6" t="s">
+        <v>434</v>
+      </c>
+      <c r="J27" s="6" t="s">
+        <v>435</v>
+      </c>
+      <c r="K27" s="13"/>
     </row>
     <row r="28" spans="1:11">
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="8"/>
-      <c r="I28" s="8"/>
-      <c r="J28" s="8"/>
-      <c r="K28" s="6"/>
+      <c r="A28" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>436</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>437</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>438</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="H28" s="6" t="s">
+        <v>440</v>
+      </c>
+      <c r="I28" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="J28" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="K28" s="13"/>
     </row>
     <row r="29" spans="1:11">
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="8"/>
-      <c r="I29" s="8"/>
-      <c r="J29" s="8"/>
-      <c r="K29" s="6"/>
+      <c r="A29" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>443</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>444</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>445</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="H29" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="I29" s="6" t="s">
+        <v>448</v>
+      </c>
+      <c r="J29" s="6" t="s">
+        <v>449</v>
+      </c>
+      <c r="K29" s="13"/>
     </row>
     <row r="30" spans="1:11">
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="8"/>
-      <c r="I30" s="8"/>
-      <c r="J30" s="8"/>
-      <c r="K30" s="6"/>
+      <c r="A30" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>450</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>451</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>452</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>453</v>
+      </c>
+      <c r="H30" s="6" t="s">
+        <v>454</v>
+      </c>
+      <c r="I30" s="6" t="s">
+        <v>455</v>
+      </c>
+      <c r="J30" s="6" t="s">
+        <v>456</v>
+      </c>
+      <c r="K30" s="13"/>
     </row>
     <row r="31" spans="1:11">
-      <c r="A31" s="9"/>
-      <c r="B31" s="9"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="9"/>
-      <c r="H31" s="9"/>
-      <c r="I31" s="9"/>
-      <c r="J31" s="9"/>
-      <c r="K31" s="6"/>
+      <c r="A31" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>457</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>458</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>459</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>460</v>
+      </c>
+      <c r="H31" s="6" t="s">
+        <v>461</v>
+      </c>
+      <c r="I31" s="6" t="s">
+        <v>462</v>
+      </c>
+      <c r="J31" s="6" t="s">
+        <v>463</v>
+      </c>
+      <c r="K31" s="13"/>
     </row>
     <row r="32" spans="1:11">
-      <c r="A32" s="11"/>
-      <c r="B32" s="11"/>
-      <c r="C32" s="12"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="11"/>
-      <c r="G32" s="11"/>
-      <c r="H32" s="11"/>
-      <c r="I32" s="11"/>
-      <c r="J32" s="11"/>
-      <c r="K32" s="6"/>
+      <c r="A32" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>464</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>465</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>466</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>467</v>
+      </c>
+      <c r="H32" s="6" t="s">
+        <v>468</v>
+      </c>
+      <c r="I32" s="6" t="s">
+        <v>469</v>
+      </c>
+      <c r="J32" s="6" t="s">
+        <v>470</v>
+      </c>
+      <c r="K32" s="13"/>
     </row>
     <row r="33" spans="1:11">
-      <c r="A33" s="11"/>
-      <c r="B33" s="11"/>
-      <c r="C33" s="12"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="13"/>
-      <c r="H33" s="13"/>
-      <c r="I33" s="13"/>
-      <c r="J33" s="13"/>
-      <c r="K33" s="6"/>
+      <c r="A33" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>471</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>472</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>473</v>
+      </c>
+      <c r="G33" s="6" t="s">
+        <v>474</v>
+      </c>
+      <c r="H33" s="6" t="s">
+        <v>475</v>
+      </c>
+      <c r="I33" s="6" t="s">
+        <v>476</v>
+      </c>
+      <c r="J33" s="6" t="s">
+        <v>477</v>
+      </c>
+      <c r="K33" s="13"/>
     </row>
     <row r="34" spans="1:11">
-      <c r="A34" s="11"/>
-      <c r="B34" s="11"/>
-      <c r="C34" s="12"/>
-      <c r="D34" s="13"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="13"/>
-      <c r="G34" s="13"/>
-      <c r="H34" s="13"/>
-      <c r="I34" s="13"/>
-      <c r="J34" s="13"/>
-      <c r="K34" s="6"/>
+      <c r="A34" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>478</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>479</v>
+      </c>
+      <c r="F34" s="6" t="s">
+        <v>480</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>481</v>
+      </c>
+      <c r="H34" s="6" t="s">
+        <v>482</v>
+      </c>
+      <c r="I34" s="6" t="s">
+        <v>483</v>
+      </c>
+      <c r="J34" s="6" t="s">
+        <v>484</v>
+      </c>
+      <c r="K34" s="13"/>
     </row>
     <row r="35" spans="1:11">
-      <c r="A35" s="11"/>
-      <c r="B35" s="11"/>
-      <c r="C35" s="12"/>
-      <c r="D35" s="13"/>
-      <c r="E35" s="13"/>
-      <c r="F35" s="13"/>
-      <c r="G35" s="13"/>
-      <c r="H35" s="13"/>
-      <c r="I35" s="13"/>
-      <c r="J35" s="13"/>
-      <c r="K35" s="6"/>
+      <c r="A35" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>485</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>486</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>487</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>488</v>
+      </c>
+      <c r="H35" s="6" t="s">
+        <v>489</v>
+      </c>
+      <c r="I35" s="6" t="s">
+        <v>490</v>
+      </c>
+      <c r="J35" s="6" t="s">
+        <v>491</v>
+      </c>
+      <c r="K35" s="13"/>
     </row>
     <row r="36" spans="1:11">
-      <c r="A36" s="11"/>
-      <c r="B36" s="11"/>
-      <c r="C36" s="12"/>
-      <c r="D36" s="13"/>
-      <c r="E36" s="13"/>
-      <c r="F36" s="13"/>
-      <c r="G36" s="13"/>
-      <c r="H36" s="13"/>
-      <c r="I36" s="13"/>
-      <c r="J36" s="13"/>
-      <c r="K36" s="6"/>
+      <c r="A36" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>492</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>493</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>494</v>
+      </c>
+      <c r="G36" s="6" t="s">
+        <v>495</v>
+      </c>
+      <c r="H36" s="6" t="s">
+        <v>496</v>
+      </c>
+      <c r="I36" s="6" t="s">
+        <v>497</v>
+      </c>
+      <c r="J36" s="6" t="s">
+        <v>498</v>
+      </c>
+      <c r="K36" s="13"/>
     </row>
     <row r="37" spans="1:11">
-      <c r="A37" s="11"/>
-      <c r="B37" s="11"/>
-      <c r="C37" s="12"/>
-      <c r="D37" s="13"/>
-      <c r="E37" s="13"/>
-      <c r="F37" s="13"/>
-      <c r="G37" s="13"/>
-      <c r="H37" s="13"/>
-      <c r="I37" s="13"/>
-      <c r="J37" s="13"/>
-      <c r="K37" s="6"/>
+      <c r="A37" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>499</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>500</v>
+      </c>
+      <c r="F37" s="6" t="s">
+        <v>501</v>
+      </c>
+      <c r="G37" s="6" t="s">
+        <v>502</v>
+      </c>
+      <c r="H37" s="6" t="s">
+        <v>503</v>
+      </c>
+      <c r="I37" s="6" t="s">
+        <v>504</v>
+      </c>
+      <c r="J37" s="6" t="s">
+        <v>505</v>
+      </c>
+      <c r="K37" s="13"/>
     </row>
     <row r="38" spans="1:11">
-      <c r="A38" s="11"/>
-      <c r="B38" s="11"/>
-      <c r="C38" s="12"/>
-      <c r="D38" s="13"/>
-      <c r="E38" s="13"/>
-      <c r="F38" s="13"/>
-      <c r="G38" s="13"/>
-      <c r="H38" s="13"/>
-      <c r="I38" s="13"/>
-      <c r="J38" s="13"/>
-      <c r="K38" s="6"/>
+      <c r="A38" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>506</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>507</v>
+      </c>
+      <c r="F38" s="6" t="s">
+        <v>508</v>
+      </c>
+      <c r="G38" s="6" t="s">
+        <v>509</v>
+      </c>
+      <c r="H38" s="6" t="s">
+        <v>510</v>
+      </c>
+      <c r="I38" s="6" t="s">
+        <v>511</v>
+      </c>
+      <c r="J38" s="6" t="s">
+        <v>512</v>
+      </c>
+      <c r="K38" s="13"/>
     </row>
     <row r="39" spans="1:11">
-      <c r="A39" s="11"/>
-      <c r="B39" s="11"/>
-      <c r="C39" s="12"/>
-      <c r="D39" s="13"/>
-      <c r="E39" s="13"/>
-      <c r="F39" s="13"/>
-      <c r="G39" s="13"/>
-      <c r="H39" s="13"/>
-      <c r="I39" s="13"/>
-      <c r="J39" s="13"/>
-      <c r="K39" s="6"/>
+      <c r="A39" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>513</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>514</v>
+      </c>
+      <c r="F39" s="6" t="s">
+        <v>515</v>
+      </c>
+      <c r="G39" s="6" t="s">
+        <v>516</v>
+      </c>
+      <c r="H39" s="6" t="s">
+        <v>517</v>
+      </c>
+      <c r="I39" s="6" t="s">
+        <v>518</v>
+      </c>
+      <c r="J39" s="6" t="s">
+        <v>519</v>
+      </c>
+      <c r="K39" s="13"/>
     </row>
     <row r="40" spans="1:11">
-      <c r="A40" s="11"/>
-      <c r="B40" s="11"/>
-      <c r="C40" s="12"/>
-      <c r="D40" s="13"/>
-      <c r="E40" s="13"/>
-      <c r="F40" s="13"/>
-      <c r="G40" s="13"/>
-      <c r="H40" s="13"/>
-      <c r="I40" s="13"/>
-      <c r="J40" s="13"/>
-      <c r="K40" s="6"/>
+      <c r="A40" s="14"/>
+      <c r="B40" s="14"/>
+      <c r="C40" s="15"/>
+      <c r="D40" s="16"/>
+      <c r="E40" s="16"/>
+      <c r="F40" s="16"/>
+      <c r="G40" s="16"/>
+      <c r="H40" s="16"/>
+      <c r="I40" s="16"/>
+      <c r="J40" s="16"/>
+      <c r="K40" s="13"/>
     </row>
     <row r="41" spans="1:11">
-      <c r="A41" s="11"/>
-      <c r="B41" s="11"/>
-      <c r="C41" s="12"/>
-      <c r="D41" s="13"/>
-      <c r="E41" s="13"/>
-      <c r="F41" s="13"/>
-      <c r="G41" s="13"/>
-      <c r="H41" s="13"/>
-      <c r="I41" s="13"/>
-      <c r="J41" s="13"/>
-      <c r="K41" s="6"/>
+      <c r="A41" s="14"/>
+      <c r="B41" s="14"/>
+      <c r="C41" s="15"/>
+      <c r="D41" s="16"/>
+      <c r="E41" s="16"/>
+      <c r="F41" s="16"/>
+      <c r="G41" s="16"/>
+      <c r="H41" s="16"/>
+      <c r="I41" s="16"/>
+      <c r="J41" s="16"/>
+      <c r="K41" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
